--- a/bioSample/bioSample_J.PLAGGENBERG_01.10.20.xlsx
+++ b/bioSample/bioSample_J.PLAGGENBERG_01.10.20.xlsx
@@ -1,119 +1,149 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/bioSample/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B509067B-F352-A14F-B208-A4129A49FA21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20280" windowHeight="19600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="20">
   <si>
-    <t>harvestDate</t>
+    <t xml:space="preserve">harvestDate</t>
   </si>
   <si>
-    <t>harvester</t>
+    <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t>biosampleNumber</t>
+    <t xml:space="preserve">biosampleNumber</t>
   </si>
   <si>
-    <t>experimentDesign</t>
+    <t xml:space="preserve">experimentDesign</t>
   </si>
   <si>
-    <t>experimentObservations</t>
+    <t xml:space="preserve">experimentObservations</t>
   </si>
   <si>
-    <t>strain</t>
+    <t xml:space="preserve">strain</t>
   </si>
   <si>
-    <t>genotype</t>
+    <t xml:space="preserve">genotype</t>
   </si>
   <si>
-    <t>floodmedia</t>
+    <t xml:space="preserve">floodmedia</t>
   </si>
   <si>
-    <t>inductionDelay</t>
+    <t xml:space="preserve">inductionDelay</t>
   </si>
   <si>
-    <t>treatment</t>
+    <t xml:space="preserve">treatment</t>
   </si>
   <si>
-    <t>timePoint</t>
+    <t xml:space="preserve">timePoint</t>
   </si>
   <si>
-    <t>replicate</t>
+    <t xml:space="preserve">replicate</t>
   </si>
   <si>
-    <t>J.PLAGGENBERG</t>
+    <t xml:space="preserve">01.10.20</t>
   </si>
   <si>
-    <t>ZEV_induction</t>
+    <t xml:space="preserve">J.PLAGGENBERG</t>
   </si>
   <si>
-    <t>SCGal</t>
+    <t xml:space="preserve">ZEV_induction</t>
   </si>
   <si>
-    <t>EtoH</t>
+    <t xml:space="preserve">Gal 4</t>
   </si>
   <si>
-    <t>Estradiol</t>
+    <t xml:space="preserve">SCGal</t>
   </si>
   <si>
-    <t>01.10.20</t>
+    <t xml:space="preserve">EtOH</t>
   </si>
   <si>
-    <t>Gal 4</t>
+    <t xml:space="preserve">Estradiol</t>
   </si>
   <si>
-    <t>RGT1</t>
+    <t xml:space="preserve">RGT1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,15 +154,8 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
+  <borders count="1">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -140,263 +163,111 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4285F4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="EA4335"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="FBBC04"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="34A853"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="FF6D01"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="46BDC6"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="1155CC"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="1155CC"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J40" activeCellId="0" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="5" max="6" width="7" customWidth="1"/>
-    <col min="9" max="9" width="6.5" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="14.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,37 +319,37 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="6">
-        <v>30</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="7">
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="9" t="n">
         <v>-1</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="9" t="n">
         <v>3</v>
       </c>
       <c r="M2" s="1"/>
@@ -496,37 +367,37 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="9">
+        <v>13</v>
+      </c>
+      <c r="C3" s="10" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="6">
-        <v>30</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="7">
+      <c r="K3" s="9" t="n">
         <v>-1</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="9" t="n">
         <v>3</v>
       </c>
       <c r="M3" s="1"/>
@@ -544,37 +415,37 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="9">
+        <v>13</v>
+      </c>
+      <c r="C4" s="10" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="6">
-        <v>30</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="7">
-        <v>15</v>
-      </c>
-      <c r="L4" s="8">
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="L4" s="9" t="n">
         <v>3</v>
       </c>
       <c r="M4" s="1"/>
@@ -592,37 +463,37 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="6">
-        <v>30</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="7">
-        <v>15</v>
-      </c>
-      <c r="L5" s="8">
+      <c r="K5" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="L5" s="9" t="n">
         <v>3</v>
       </c>
       <c r="M5" s="1"/>
@@ -640,37 +511,37 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="6">
-        <v>30</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="7">
+      <c r="G6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="9" t="n">
         <v>3</v>
       </c>
       <c r="M6" s="1"/>
@@ -688,37 +559,37 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="9">
+        <v>13</v>
+      </c>
+      <c r="C7" s="10" t="n">
         <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="6">
-        <v>30</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="7">
+      <c r="K7" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="9" t="n">
         <v>3</v>
       </c>
       <c r="M7" s="1"/>
@@ -736,37 +607,37 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="9">
+        <v>13</v>
+      </c>
+      <c r="C8" s="10" t="n">
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="6">
-        <v>30</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="6">
-        <v>30</v>
-      </c>
-      <c r="L8" s="8">
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="L8" s="9" t="n">
         <v>3</v>
       </c>
       <c r="M8" s="1"/>
@@ -784,37 +655,37 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="6">
-        <v>30</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="6">
-        <v>30</v>
-      </c>
-      <c r="L9" s="8">
+      <c r="K9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="L9" s="9" t="n">
         <v>3</v>
       </c>
       <c r="M9" s="1"/>
@@ -832,37 +703,37 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="n">
         <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="6">
-        <v>30</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="7">
+      <c r="G10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="10" t="n">
         <v>3</v>
       </c>
       <c r="M10" s="1"/>
@@ -880,37 +751,37 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="9">
+        <v>13</v>
+      </c>
+      <c r="C11" s="10" t="n">
         <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="6">
-        <v>30</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="7">
+      <c r="K11" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="10" t="n">
         <v>3</v>
       </c>
       <c r="M11" s="1"/>
@@ -928,37 +799,37 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="9">
+        <v>13</v>
+      </c>
+      <c r="C12" s="10" t="n">
         <v>11</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="6">
-        <v>30</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="7">
+      <c r="G12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="9" t="n">
         <v>-1</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="9" t="n">
         <v>4</v>
       </c>
       <c r="M12" s="1"/>
@@ -976,37 +847,37 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="n">
         <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="6">
-        <v>30</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="7">
+      <c r="K13" s="9" t="n">
         <v>-1</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="9" t="n">
         <v>4</v>
       </c>
       <c r="M13" s="1"/>
@@ -1024,37 +895,37 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="n">
         <v>13</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="6">
-        <v>30</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="7">
-        <v>15</v>
-      </c>
-      <c r="L14" s="8">
+      <c r="G14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="L14" s="9" t="n">
         <v>4</v>
       </c>
       <c r="M14" s="1"/>
@@ -1072,37 +943,37 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="9">
+        <v>13</v>
+      </c>
+      <c r="C15" s="10" t="n">
         <v>14</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="6">
-        <v>30</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="7">
-        <v>15</v>
-      </c>
-      <c r="L15" s="8">
+      <c r="K15" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="L15" s="9" t="n">
         <v>4</v>
       </c>
       <c r="M15" s="1"/>
@@ -1120,37 +991,37 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="9">
+        <v>13</v>
+      </c>
+      <c r="C16" s="10" t="n">
         <v>15</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="6">
-        <v>30</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="7">
+      <c r="G16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="9" t="n">
         <v>4</v>
       </c>
       <c r="M16" s="1"/>
@@ -1168,37 +1039,37 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3" t="n">
         <v>16</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="6">
-        <v>30</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="7">
+      <c r="K17" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="9" t="n">
         <v>4</v>
       </c>
       <c r="M17" s="1"/>
@@ -1216,37 +1087,37 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3">
-        <v>17</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="6">
-        <v>30</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="6">
-        <v>30</v>
-      </c>
-      <c r="L18" s="8">
+      <c r="G18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="L18" s="9" t="n">
         <v>4</v>
       </c>
       <c r="M18" s="1"/>
@@ -1264,37 +1135,37 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="9">
+        <v>13</v>
+      </c>
+      <c r="C19" s="10" t="n">
         <v>18</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="6">
-        <v>30</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="6">
-        <v>30</v>
-      </c>
-      <c r="L19" s="8">
+      <c r="K19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="L19" s="9" t="n">
         <v>4</v>
       </c>
       <c r="M19" s="1"/>
@@ -1312,37 +1183,37 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="9">
+        <v>13</v>
+      </c>
+      <c r="C20" s="10" t="n">
         <v>19</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="6">
-        <v>30</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="7">
+      <c r="G20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="10" t="n">
         <v>4</v>
       </c>
       <c r="M20" s="1"/>
@@ -1360,37 +1231,37 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="3">
+        <v>13</v>
+      </c>
+      <c r="C21" s="3" t="n">
         <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="6">
-        <v>30</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="7">
+      <c r="K21" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="10" t="n">
         <v>4</v>
       </c>
       <c r="M21" s="1"/>
@@ -1408,37 +1279,37 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="3">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="6">
-        <v>30</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="7">
+      <c r="H22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="9" t="n">
         <v>-1</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="9" t="n">
         <v>3</v>
       </c>
       <c r="M22" s="1"/>
@@ -1456,37 +1327,37 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="9">
+        <v>13</v>
+      </c>
+      <c r="C23" s="10" t="n">
         <v>22</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="6">
+      <c r="H23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="7">
+        <v>18</v>
+      </c>
+      <c r="K23" s="9" t="n">
         <v>-1</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="9" t="n">
         <v>3</v>
       </c>
       <c r="M23" s="1"/>
@@ -1504,37 +1375,37 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="9">
+        <v>13</v>
+      </c>
+      <c r="C24" s="10" t="n">
         <v>23</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="6">
-        <v>30</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="7">
-        <v>15</v>
-      </c>
-      <c r="L24" s="8">
+      <c r="H24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="L24" s="9" t="n">
         <v>3</v>
       </c>
       <c r="M24" s="1"/>
@@ -1552,37 +1423,37 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="3">
+        <v>13</v>
+      </c>
+      <c r="C25" s="3" t="n">
         <v>24</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="6">
+      <c r="H25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" s="7">
-        <v>15</v>
-      </c>
-      <c r="L25" s="8">
+        <v>18</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="L25" s="9" t="n">
         <v>3</v>
       </c>
       <c r="M25" s="1"/>
@@ -1600,37 +1471,37 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="3">
+        <v>13</v>
+      </c>
+      <c r="C26" s="3" t="n">
         <v>25</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="6">
-        <v>30</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" s="7">
+      <c r="H26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="9" t="n">
         <v>3</v>
       </c>
       <c r="M26" s="1"/>
@@ -1648,37 +1519,37 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="9">
+        <v>13</v>
+      </c>
+      <c r="C27" s="10" t="n">
         <v>26</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="6">
+      <c r="H27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" s="7">
+        <v>18</v>
+      </c>
+      <c r="K27" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="9" t="n">
         <v>3</v>
       </c>
       <c r="M27" s="1"/>
@@ -1696,37 +1567,37 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="9">
+        <v>13</v>
+      </c>
+      <c r="C28" s="10" t="n">
         <v>27</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="6">
-        <v>30</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="6">
-        <v>30</v>
-      </c>
-      <c r="L28" s="8">
+      <c r="H28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="L28" s="9" t="n">
         <v>3</v>
       </c>
       <c r="M28" s="1"/>
@@ -1744,37 +1615,37 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="3">
+        <v>13</v>
+      </c>
+      <c r="C29" s="3" t="n">
         <v>28</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="6">
+      <c r="H29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" s="6">
-        <v>30</v>
-      </c>
-      <c r="L29" s="8">
+        <v>18</v>
+      </c>
+      <c r="K29" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="L29" s="9" t="n">
         <v>3</v>
       </c>
       <c r="M29" s="1"/>
@@ -1792,37 +1663,37 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="3">
+        <v>13</v>
+      </c>
+      <c r="C30" s="3" t="n">
         <v>29</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="6">
-        <v>30</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K30" s="7">
+      <c r="H30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="10" t="n">
         <v>3</v>
       </c>
       <c r="M30" s="1"/>
@@ -1840,37 +1711,37 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="9">
+        <v>13</v>
+      </c>
+      <c r="C31" s="10" t="n">
         <v>30</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="6">
+      <c r="H31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K31" s="7">
+        <v>18</v>
+      </c>
+      <c r="K31" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L31" s="10" t="n">
         <v>3</v>
       </c>
       <c r="M31" s="1"/>
@@ -1888,37 +1759,37 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="9">
+        <v>13</v>
+      </c>
+      <c r="C32" s="10" t="n">
         <v>31</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="6">
-        <v>30</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K32" s="7">
+      <c r="H32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="9" t="n">
         <v>-1</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32" s="9" t="n">
         <v>4</v>
       </c>
       <c r="M32" s="1"/>
@@ -1936,37 +1807,37 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="3">
+        <v>13</v>
+      </c>
+      <c r="C33" s="3" t="n">
         <v>32</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="6">
+      <c r="H33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K33" s="7">
+        <v>18</v>
+      </c>
+      <c r="K33" s="9" t="n">
         <v>-1</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L33" s="9" t="n">
         <v>4</v>
       </c>
       <c r="M33" s="1"/>
@@ -1984,37 +1855,37 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="3">
+        <v>13</v>
+      </c>
+      <c r="C34" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="6">
-        <v>30</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K34" s="7">
-        <v>15</v>
-      </c>
-      <c r="L34" s="8">
+      <c r="H34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="L34" s="9" t="n">
         <v>4</v>
       </c>
       <c r="M34" s="1"/>
@@ -2032,37 +1903,37 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="9">
+        <v>13</v>
+      </c>
+      <c r="C35" s="10" t="n">
         <v>34</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="6">
+      <c r="H35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K35" s="7">
-        <v>15</v>
-      </c>
-      <c r="L35" s="8">
+        <v>18</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="L35" s="9" t="n">
         <v>4</v>
       </c>
       <c r="M35" s="1"/>
@@ -2080,37 +1951,37 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="9">
+        <v>13</v>
+      </c>
+      <c r="C36" s="10" t="n">
         <v>35</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="6">
-        <v>30</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K36" s="7">
+      <c r="H36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="L36" s="8">
+      <c r="L36" s="9" t="n">
         <v>4</v>
       </c>
       <c r="M36" s="1"/>
@@ -2128,37 +1999,37 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="3">
+        <v>13</v>
+      </c>
+      <c r="C37" s="3" t="n">
         <v>36</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="6">
+      <c r="H37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K37" s="7">
+        <v>18</v>
+      </c>
+      <c r="K37" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="L37" s="8">
+      <c r="L37" s="9" t="n">
         <v>4</v>
       </c>
       <c r="M37" s="1"/>
@@ -2176,37 +2047,37 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="3">
+        <v>13</v>
+      </c>
+      <c r="C38" s="3" t="n">
         <v>37</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="6">
-        <v>30</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K38" s="6">
-        <v>30</v>
-      </c>
-      <c r="L38" s="8">
+      <c r="H38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="L38" s="9" t="n">
         <v>4</v>
       </c>
       <c r="M38" s="1"/>
@@ -2224,37 +2095,37 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="9">
+        <v>13</v>
+      </c>
+      <c r="C39" s="10" t="n">
         <v>38</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" s="6">
+      <c r="H39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K39" s="6">
-        <v>30</v>
-      </c>
-      <c r="L39" s="8">
+        <v>18</v>
+      </c>
+      <c r="K39" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="L39" s="9" t="n">
         <v>4</v>
       </c>
       <c r="M39" s="1"/>
@@ -2272,37 +2143,37 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="9">
+        <v>13</v>
+      </c>
+      <c r="C40" s="10" t="n">
         <v>39</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H40" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="6">
-        <v>30</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K40" s="7">
+      <c r="H40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L40" s="10" t="n">
         <v>4</v>
       </c>
       <c r="M40" s="1"/>
@@ -2320,37 +2191,37 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="3">
+        <v>13</v>
+      </c>
+      <c r="C41" s="3" t="n">
         <v>40</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H41" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="6">
+      <c r="H41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="7" t="n">
         <v>30</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K41" s="7">
+        <v>18</v>
+      </c>
+      <c r="K41" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="L41" s="9">
+      <c r="L41" s="10" t="n">
         <v>4</v>
       </c>
       <c r="M41" s="1"/>
@@ -2369,6 +2240,12 @@
       <c r="Z41" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/bioSample/bioSample_J.PLAGGENBERG_01.10.20.xlsx
+++ b/bioSample/bioSample_J.PLAGGENBERG_01.10.20.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/bioSample/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B1B6EC-F2C9-F54E-A669-D4550A8FB575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="2460" yWindow="460" windowWidth="16380" windowHeight="18280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,95 +27,76 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="20">
   <si>
-    <t xml:space="preserve">harvestDate</t>
+    <t>harvestDate</t>
   </si>
   <si>
-    <t xml:space="preserve">harvester</t>
+    <t>harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t>biosampleNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">experimentDesign</t>
+    <t>experimentDesign</t>
   </si>
   <si>
-    <t xml:space="preserve">experimentObservations</t>
+    <t>experimentObservations</t>
   </si>
   <si>
-    <t xml:space="preserve">strain</t>
+    <t>strain</t>
   </si>
   <si>
-    <t xml:space="preserve">genotype</t>
+    <t>genotype</t>
   </si>
   <si>
-    <t xml:space="preserve">floodmedia</t>
+    <t>floodmedia</t>
   </si>
   <si>
-    <t xml:space="preserve">inductionDelay</t>
+    <t>inductionDelay</t>
   </si>
   <si>
-    <t xml:space="preserve">treatment</t>
+    <t>treatment</t>
   </si>
   <si>
-    <t xml:space="preserve">timePoint</t>
+    <t>timePoint</t>
   </si>
   <si>
-    <t xml:space="preserve">replicate</t>
+    <t>replicate</t>
   </si>
   <si>
-    <t xml:space="preserve">01.10.20</t>
+    <t>01.10.20</t>
   </si>
   <si>
-    <t xml:space="preserve">J.PLAGGENBERG</t>
+    <t>J.PLAGGENBERG</t>
   </si>
   <si>
-    <t xml:space="preserve">ZEV_induction</t>
+    <t>ZEV_induction</t>
   </si>
   <si>
-    <t xml:space="preserve">Gal 4</t>
+    <t>SCGal</t>
   </si>
   <si>
-    <t xml:space="preserve">SCGal</t>
+    <t>EtOH</t>
   </si>
   <si>
-    <t xml:space="preserve">EtOH</t>
+    <t>Estradiol</t>
   </si>
   <si>
-    <t xml:space="preserve">Estradiol</t>
+    <t>RGT1</t>
   </si>
   <si>
-    <t xml:space="preserve">RGT1</t>
+    <t>GAL4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -143,7 +129,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,7 +147,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -163,111 +155,362 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J40" activeCellId="0" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="14.5"/>
+    <col min="1" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="6" width="7" customWidth="1"/>
+    <col min="7" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="6.5" customWidth="1"/>
+    <col min="10" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -319,14 +562,14 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -334,22 +577,22 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
+      <c r="G2" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="7">
+        <v>30</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="9" t="n">
+      <c r="K2" s="9">
         <v>-1</v>
       </c>
-      <c r="L2" s="9" t="n">
+      <c r="L2" s="9">
         <v>3</v>
       </c>
       <c r="M2" s="1"/>
@@ -367,14 +610,14 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="10" t="n">
+      <c r="C3" s="10">
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -382,22 +625,22 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
+      <c r="G3" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="I3" s="7">
         <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="K3" s="9">
         <v>-1</v>
       </c>
-      <c r="L3" s="9" t="n">
+      <c r="L3" s="9">
         <v>3</v>
       </c>
       <c r="M3" s="1"/>
@@ -415,14 +658,14 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="10">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -430,22 +673,22 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="5" t="s">
-        <v>15</v>
+      <c r="G4" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="7">
+        <v>30</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="L4" s="9" t="n">
+      <c r="K4" s="9">
+        <v>15</v>
+      </c>
+      <c r="L4" s="9">
         <v>3</v>
       </c>
       <c r="M4" s="1"/>
@@ -463,14 +706,14 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="3">
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -478,22 +721,22 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="5" t="s">
-        <v>15</v>
+      <c r="G5" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" s="7">
         <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="L5" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="K5" s="9">
+        <v>15</v>
+      </c>
+      <c r="L5" s="9">
         <v>3</v>
       </c>
       <c r="M5" s="1"/>
@@ -511,14 +754,14 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="3">
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -526,22 +769,22 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="5" t="s">
-        <v>15</v>
+      <c r="G6" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="7">
+        <v>30</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="9" t="n">
+      <c r="K6" s="9">
         <v>20</v>
       </c>
-      <c r="L6" s="9" t="n">
+      <c r="L6" s="9">
         <v>3</v>
       </c>
       <c r="M6" s="1"/>
@@ -559,14 +802,14 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="10">
         <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -574,22 +817,22 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="5" t="s">
-        <v>15</v>
+      <c r="G7" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="I7" s="7">
         <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="K7" s="9">
         <v>20</v>
       </c>
-      <c r="L7" s="9" t="n">
+      <c r="L7" s="9">
         <v>3</v>
       </c>
       <c r="M7" s="1"/>
@@ -607,14 +850,14 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="10" t="n">
+      <c r="C8" s="10">
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -622,22 +865,22 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="5" t="s">
-        <v>15</v>
+      <c r="G8" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="7">
+        <v>30</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="L8" s="9" t="n">
+      <c r="K8" s="7">
+        <v>30</v>
+      </c>
+      <c r="L8" s="9">
         <v>3</v>
       </c>
       <c r="M8" s="1"/>
@@ -655,14 +898,14 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="3">
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -670,22 +913,22 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="5" t="s">
-        <v>15</v>
+      <c r="G9" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="I9" s="7">
         <v>30</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="L9" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="K9" s="7">
+        <v>30</v>
+      </c>
+      <c r="L9" s="9">
         <v>3</v>
       </c>
       <c r="M9" s="1"/>
@@ -703,14 +946,14 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="3">
         <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -718,22 +961,22 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="5" t="s">
-        <v>15</v>
+      <c r="G10" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="H10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="7">
+        <v>30</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="9" t="n">
+      <c r="K10" s="9">
         <v>90</v>
       </c>
-      <c r="L10" s="10" t="n">
+      <c r="L10" s="10">
         <v>3</v>
       </c>
       <c r="M10" s="1"/>
@@ -751,14 +994,14 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="10" t="n">
+      <c r="C11" s="10">
         <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -766,22 +1009,22 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="5" t="s">
-        <v>15</v>
+      <c r="G11" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="I11" s="7">
         <v>30</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="K11" s="9">
         <v>90</v>
       </c>
-      <c r="L11" s="10" t="n">
+      <c r="L11" s="10">
         <v>3</v>
       </c>
       <c r="M11" s="1"/>
@@ -799,14 +1042,14 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="10" t="n">
+      <c r="C12" s="10">
         <v>11</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -814,22 +1057,22 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="5" t="s">
-        <v>15</v>
+      <c r="G12" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="H12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="7">
+        <v>30</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="9" t="n">
+      <c r="K12" s="9">
         <v>-1</v>
       </c>
-      <c r="L12" s="9" t="n">
+      <c r="L12" s="9">
         <v>4</v>
       </c>
       <c r="M12" s="1"/>
@@ -847,14 +1090,14 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="3">
         <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -862,22 +1105,22 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="5" t="s">
-        <v>15</v>
+      <c r="G13" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="I13" s="7">
         <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="K13" s="9">
         <v>-1</v>
       </c>
-      <c r="L13" s="9" t="n">
+      <c r="L13" s="9">
         <v>4</v>
       </c>
       <c r="M13" s="1"/>
@@ -895,14 +1138,14 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="3">
         <v>13</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -910,22 +1153,22 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="5" t="s">
-        <v>15</v>
+      <c r="G14" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="H14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="7">
+        <v>30</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="L14" s="9" t="n">
+      <c r="K14" s="9">
+        <v>15</v>
+      </c>
+      <c r="L14" s="9">
         <v>4</v>
       </c>
       <c r="M14" s="1"/>
@@ -943,14 +1186,14 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="10" t="n">
+      <c r="C15" s="10">
         <v>14</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -958,22 +1201,22 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="5" t="s">
-        <v>15</v>
+      <c r="G15" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="I15" s="7">
         <v>30</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="L15" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="K15" s="9">
+        <v>15</v>
+      </c>
+      <c r="L15" s="9">
         <v>4</v>
       </c>
       <c r="M15" s="1"/>
@@ -991,14 +1234,14 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="10" t="n">
+      <c r="C16" s="10">
         <v>15</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -1006,22 +1249,22 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="5" t="s">
-        <v>15</v>
+      <c r="G16" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="H16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="7">
+        <v>30</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="9" t="n">
+      <c r="K16" s="9">
         <v>20</v>
       </c>
-      <c r="L16" s="9" t="n">
+      <c r="L16" s="9">
         <v>4</v>
       </c>
       <c r="M16" s="1"/>
@@ -1039,14 +1282,14 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="3">
         <v>16</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1054,22 +1297,22 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="5" t="s">
-        <v>15</v>
+      <c r="G17" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="I17" s="7">
         <v>30</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="K17" s="9">
         <v>20</v>
       </c>
-      <c r="L17" s="9" t="n">
+      <c r="L17" s="9">
         <v>4</v>
       </c>
       <c r="M17" s="1"/>
@@ -1087,14 +1330,14 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="3">
         <v>17</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -1102,22 +1345,22 @@
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="5" t="s">
-        <v>15</v>
+      <c r="G18" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="H18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="7">
+        <v>30</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="L18" s="9" t="n">
+      <c r="K18" s="7">
+        <v>30</v>
+      </c>
+      <c r="L18" s="9">
         <v>4</v>
       </c>
       <c r="M18" s="1"/>
@@ -1135,14 +1378,14 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="10" t="n">
+      <c r="C19" s="10">
         <v>18</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -1150,22 +1393,22 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="5" t="s">
-        <v>15</v>
+      <c r="G19" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="I19" s="7">
         <v>30</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="L19" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="K19" s="7">
+        <v>30</v>
+      </c>
+      <c r="L19" s="9">
         <v>4</v>
       </c>
       <c r="M19" s="1"/>
@@ -1183,14 +1426,14 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="10" t="n">
+      <c r="C20" s="10">
         <v>19</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -1198,22 +1441,22 @@
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="5" t="s">
-        <v>15</v>
+      <c r="G20" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="H20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="7">
+        <v>30</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="9" t="n">
+      <c r="K20" s="9">
         <v>90</v>
       </c>
-      <c r="L20" s="10" t="n">
+      <c r="L20" s="10">
         <v>4</v>
       </c>
       <c r="M20" s="1"/>
@@ -1231,14 +1474,14 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="3">
         <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -1246,22 +1489,22 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="5" t="s">
-        <v>15</v>
+      <c r="G21" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="I21" s="7">
         <v>30</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="K21" s="9">
         <v>90</v>
       </c>
-      <c r="L21" s="10" t="n">
+      <c r="L21" s="10">
         <v>4</v>
       </c>
       <c r="M21" s="1"/>
@@ -1279,14 +1522,14 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="C22" s="3">
         <v>21</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -1295,21 +1538,21 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="7">
+        <v>30</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="9" t="n">
+      <c r="K22" s="9">
         <v>-1</v>
       </c>
-      <c r="L22" s="9" t="n">
+      <c r="L22" s="9">
         <v>3</v>
       </c>
       <c r="M22" s="1"/>
@@ -1327,14 +1570,14 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="10" t="n">
+      <c r="C23" s="10">
         <v>22</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -1343,21 +1586,21 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="I23" s="7">
         <v>30</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="K23" s="9">
         <v>-1</v>
       </c>
-      <c r="L23" s="9" t="n">
+      <c r="L23" s="9">
         <v>3</v>
       </c>
       <c r="M23" s="1"/>
@@ -1375,14 +1618,14 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="10" t="n">
+      <c r="C24" s="10">
         <v>23</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -1391,21 +1634,21 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="7">
+        <v>30</v>
+      </c>
+      <c r="J24" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="L24" s="9" t="n">
+      <c r="K24" s="9">
+        <v>15</v>
+      </c>
+      <c r="L24" s="9">
         <v>3</v>
       </c>
       <c r="M24" s="1"/>
@@ -1423,14 +1666,14 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="C25" s="3">
         <v>24</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -1439,21 +1682,21 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="I25" s="7">
         <v>30</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="L25" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="K25" s="9">
+        <v>15</v>
+      </c>
+      <c r="L25" s="9">
         <v>3</v>
       </c>
       <c r="M25" s="1"/>
@@ -1471,14 +1714,14 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="3">
         <v>25</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -1487,21 +1730,21 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="7">
+        <v>30</v>
+      </c>
+      <c r="J26" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="9" t="n">
+      <c r="K26" s="9">
         <v>20</v>
       </c>
-      <c r="L26" s="9" t="n">
+      <c r="L26" s="9">
         <v>3</v>
       </c>
       <c r="M26" s="1"/>
@@ -1519,14 +1762,14 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="10" t="n">
+      <c r="C27" s="10">
         <v>26</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -1535,21 +1778,21 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="I27" s="7">
         <v>30</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="K27" s="9">
         <v>20</v>
       </c>
-      <c r="L27" s="9" t="n">
+      <c r="L27" s="9">
         <v>3</v>
       </c>
       <c r="M27" s="1"/>
@@ -1567,14 +1810,14 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="10" t="n">
+      <c r="C28" s="10">
         <v>27</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -1583,21 +1826,21 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="7">
+        <v>30</v>
+      </c>
+      <c r="J28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="L28" s="9" t="n">
+      <c r="K28" s="7">
+        <v>30</v>
+      </c>
+      <c r="L28" s="9">
         <v>3</v>
       </c>
       <c r="M28" s="1"/>
@@ -1615,14 +1858,14 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="3" t="n">
+      <c r="C29" s="3">
         <v>28</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -1631,21 +1874,21 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="I29" s="7">
         <v>30</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="L29" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="K29" s="7">
+        <v>30</v>
+      </c>
+      <c r="L29" s="9">
         <v>3</v>
       </c>
       <c r="M29" s="1"/>
@@ -1663,14 +1906,14 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="3" t="n">
+      <c r="C30" s="3">
         <v>29</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -1679,21 +1922,21 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="7">
+        <v>30</v>
+      </c>
+      <c r="J30" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="9" t="n">
+      <c r="K30" s="9">
         <v>90</v>
       </c>
-      <c r="L30" s="10" t="n">
+      <c r="L30" s="10">
         <v>3</v>
       </c>
       <c r="M30" s="1"/>
@@ -1711,14 +1954,14 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="10" t="n">
+      <c r="C31" s="10">
         <v>30</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -1727,21 +1970,21 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="I31" s="7">
         <v>30</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="K31" s="9">
         <v>90</v>
       </c>
-      <c r="L31" s="10" t="n">
+      <c r="L31" s="10">
         <v>3</v>
       </c>
       <c r="M31" s="1"/>
@@ -1759,14 +2002,14 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="10" t="n">
+      <c r="C32" s="10">
         <v>31</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -1775,21 +2018,21 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="7">
+        <v>30</v>
+      </c>
+      <c r="J32" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" s="9" t="n">
+      <c r="K32" s="9">
         <v>-1</v>
       </c>
-      <c r="L32" s="9" t="n">
+      <c r="L32" s="9">
         <v>4</v>
       </c>
       <c r="M32" s="1"/>
@@ -1807,14 +2050,14 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="3" t="n">
+      <c r="C33" s="3">
         <v>32</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -1823,21 +2066,21 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="I33" s="7">
         <v>30</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="K33" s="9">
         <v>-1</v>
       </c>
-      <c r="L33" s="9" t="n">
+      <c r="L33" s="9">
         <v>4</v>
       </c>
       <c r="M33" s="1"/>
@@ -1855,14 +2098,14 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="3" t="n">
+      <c r="C34" s="3">
         <v>33</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -1871,21 +2114,21 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="7">
+        <v>30</v>
+      </c>
+      <c r="J34" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="L34" s="9" t="n">
+      <c r="K34" s="9">
+        <v>15</v>
+      </c>
+      <c r="L34" s="9">
         <v>4</v>
       </c>
       <c r="M34" s="1"/>
@@ -1903,14 +2146,14 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="10" t="n">
+      <c r="C35" s="10">
         <v>34</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -1919,21 +2162,21 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="I35" s="7">
         <v>30</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="L35" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="K35" s="9">
+        <v>15</v>
+      </c>
+      <c r="L35" s="9">
         <v>4</v>
       </c>
       <c r="M35" s="1"/>
@@ -1951,14 +2194,14 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="10" t="n">
+      <c r="C36" s="10">
         <v>35</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -1967,21 +2210,21 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="7">
+        <v>30</v>
+      </c>
+      <c r="J36" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K36" s="9" t="n">
+      <c r="K36" s="9">
         <v>20</v>
       </c>
-      <c r="L36" s="9" t="n">
+      <c r="L36" s="9">
         <v>4</v>
       </c>
       <c r="M36" s="1"/>
@@ -1999,14 +2242,14 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="3" t="n">
+      <c r="C37" s="3">
         <v>36</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -2015,21 +2258,21 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="I37" s="7">
         <v>30</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="K37" s="9">
         <v>20</v>
       </c>
-      <c r="L37" s="9" t="n">
+      <c r="L37" s="9">
         <v>4</v>
       </c>
       <c r="M37" s="1"/>
@@ -2047,14 +2290,14 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="3" t="n">
+      <c r="C38" s="3">
         <v>37</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -2063,21 +2306,21 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="7">
+        <v>30</v>
+      </c>
+      <c r="J38" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I38" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K38" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="L38" s="9" t="n">
+      <c r="K38" s="7">
+        <v>30</v>
+      </c>
+      <c r="L38" s="9">
         <v>4</v>
       </c>
       <c r="M38" s="1"/>
@@ -2095,14 +2338,14 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="10" t="n">
+      <c r="C39" s="10">
         <v>38</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -2111,21 +2354,21 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="I39" s="7">
         <v>30</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K39" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="L39" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="K39" s="7">
+        <v>30</v>
+      </c>
+      <c r="L39" s="9">
         <v>4</v>
       </c>
       <c r="M39" s="1"/>
@@ -2143,14 +2386,14 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="10" t="n">
+      <c r="C40" s="10">
         <v>39</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -2159,21 +2402,21 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="7">
+        <v>30</v>
+      </c>
+      <c r="J40" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I40" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="9" t="n">
+      <c r="K40" s="9">
         <v>90</v>
       </c>
-      <c r="L40" s="10" t="n">
+      <c r="L40" s="10">
         <v>4</v>
       </c>
       <c r="M40" s="1"/>
@@ -2191,14 +2434,14 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="3" t="n">
+      <c r="C41" s="3">
         <v>40</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -2207,21 +2450,21 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="I41" s="7">
         <v>30</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K41" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="K41" s="9">
         <v>90</v>
       </c>
-      <c r="L41" s="10" t="n">
+      <c r="L41" s="10">
         <v>4</v>
       </c>
       <c r="M41" s="1"/>
@@ -2240,12 +2483,7 @@
       <c r="Z41" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/bioSample/bioSample_J.PLAGGENBERG_01.10.20.xlsx
+++ b/bioSample/bioSample_J.PLAGGENBERG_01.10.20.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/bioSample/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B1B6EC-F2C9-F54E-A669-D4550A8FB575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="460" windowWidth="16380" windowHeight="18280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,76 +22,95 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="20">
   <si>
-    <t>harvestDate</t>
+    <t xml:space="preserve">harvestDate</t>
   </si>
   <si>
-    <t>harvester</t>
+    <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t>biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
-    <t>experimentDesign</t>
+    <t xml:space="preserve">experimentDesign</t>
   </si>
   <si>
-    <t>experimentObservations</t>
+    <t xml:space="preserve">experimentObservations</t>
   </si>
   <si>
-    <t>strain</t>
+    <t xml:space="preserve">strain</t>
   </si>
   <si>
-    <t>genotype</t>
+    <t xml:space="preserve">genotype</t>
   </si>
   <si>
-    <t>floodmedia</t>
+    <t xml:space="preserve">floodmedia</t>
   </si>
   <si>
-    <t>inductionDelay</t>
+    <t xml:space="preserve">inductionDelay</t>
   </si>
   <si>
-    <t>treatment</t>
+    <t xml:space="preserve">treatment</t>
   </si>
   <si>
-    <t>timePoint</t>
+    <t xml:space="preserve">timePoint</t>
   </si>
   <si>
-    <t>replicate</t>
+    <t xml:space="preserve">replicate</t>
   </si>
   <si>
-    <t>01.10.20</t>
+    <t xml:space="preserve">01.10.20</t>
   </si>
   <si>
-    <t>J.PLAGGENBERG</t>
+    <t xml:space="preserve">J.PLAGGENBERG</t>
   </si>
   <si>
-    <t>ZEV_induction</t>
+    <t xml:space="preserve">ZEV_induction</t>
   </si>
   <si>
-    <t>SCGal</t>
+    <t xml:space="preserve">GAL4</t>
   </si>
   <si>
-    <t>EtOH</t>
+    <t xml:space="preserve">SCGal</t>
   </si>
   <si>
-    <t>Estradiol</t>
+    <t xml:space="preserve">EtOH</t>
   </si>
   <si>
-    <t>RGT1</t>
+    <t xml:space="preserve">Estradiol</t>
   </si>
   <si>
-    <t>GAL4</t>
+    <t xml:space="preserve">RGT1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -104,6 +118,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -130,12 +150,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,7 +162,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -155,369 +170,126 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+  <cellXfs count="13">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H38" activeCellId="0" sqref="F38:H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="6" width="7" customWidth="1"/>
-    <col min="7" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="6.5" customWidth="1"/>
-    <col min="10" max="1025" width="14.5" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="14.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -562,37 +334,37 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="7">
-        <v>30</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="9">
+      <c r="G2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="10" t="n">
         <v>-1</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="10" t="n">
         <v>3</v>
       </c>
       <c r="M2" s="1"/>
@@ -610,37 +382,37 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="7">
+      <c r="G3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="8" t="n">
         <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="9">
+        <v>18</v>
+      </c>
+      <c r="K3" s="10" t="n">
         <v>-1</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="10" t="n">
         <v>3</v>
       </c>
       <c r="M3" s="1"/>
@@ -658,37 +430,37 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="7">
-        <v>30</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="9">
-        <v>15</v>
-      </c>
-      <c r="L4" s="9">
+      <c r="G4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="L4" s="10" t="n">
         <v>3</v>
       </c>
       <c r="M4" s="1"/>
@@ -706,37 +478,37 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="7">
+      <c r="G5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="8" t="n">
         <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="9">
-        <v>15</v>
-      </c>
-      <c r="L5" s="9">
+        <v>18</v>
+      </c>
+      <c r="K5" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="L5" s="10" t="n">
         <v>3</v>
       </c>
       <c r="M5" s="1"/>
@@ -754,37 +526,37 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="7">
-        <v>30</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="9">
+      <c r="G6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="10" t="n">
         <v>3</v>
       </c>
       <c r="M6" s="1"/>
@@ -802,37 +574,37 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="7">
+      <c r="G7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="8" t="n">
         <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="9">
+        <v>18</v>
+      </c>
+      <c r="K7" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="10" t="n">
         <v>3</v>
       </c>
       <c r="M7" s="1"/>
@@ -850,37 +622,37 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="7">
-        <v>30</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="7">
-        <v>30</v>
-      </c>
-      <c r="L8" s="9">
+      <c r="G8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="L8" s="10" t="n">
         <v>3</v>
       </c>
       <c r="M8" s="1"/>
@@ -898,37 +670,37 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="7">
+      <c r="G9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="8" t="n">
         <v>30</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="7">
-        <v>30</v>
-      </c>
-      <c r="L9" s="9">
+        <v>18</v>
+      </c>
+      <c r="K9" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="L9" s="10" t="n">
         <v>3</v>
       </c>
       <c r="M9" s="1"/>
@@ -946,37 +718,37 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="7">
-        <v>30</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="9">
+      <c r="G10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="10" t="n">
         <v>90</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="11" t="n">
         <v>3</v>
       </c>
       <c r="M10" s="1"/>
@@ -994,37 +766,37 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="7">
+      <c r="G11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="8" t="n">
         <v>30</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="9">
+        <v>18</v>
+      </c>
+      <c r="K11" s="10" t="n">
         <v>90</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="11" t="n">
         <v>3</v>
       </c>
       <c r="M11" s="1"/>
@@ -1042,37 +814,37 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="7">
-        <v>30</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="9">
+      <c r="G12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="10" t="n">
         <v>-1</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="10" t="n">
         <v>4</v>
       </c>
       <c r="M12" s="1"/>
@@ -1090,37 +862,37 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3">
-        <v>12</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="7">
+      <c r="G13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="8" t="n">
         <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="9">
+        <v>18</v>
+      </c>
+      <c r="K13" s="10" t="n">
         <v>-1</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="10" t="n">
         <v>4</v>
       </c>
       <c r="M13" s="1"/>
@@ -1138,37 +910,37 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3">
-        <v>13</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="7">
-        <v>30</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="9">
-        <v>15</v>
-      </c>
-      <c r="L14" s="9">
+      <c r="G14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="L14" s="10" t="n">
         <v>4</v>
       </c>
       <c r="M14" s="1"/>
@@ -1186,37 +958,37 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="10">
-        <v>14</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="7">
+      <c r="G15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="8" t="n">
         <v>30</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="9">
-        <v>15</v>
-      </c>
-      <c r="L15" s="9">
+        <v>18</v>
+      </c>
+      <c r="K15" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="L15" s="10" t="n">
         <v>4</v>
       </c>
       <c r="M15" s="1"/>
@@ -1234,37 +1006,37 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="10">
-        <v>15</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="7">
-        <v>30</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="9">
+      <c r="G16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="10" t="n">
         <v>4</v>
       </c>
       <c r="M16" s="1"/>
@@ -1282,37 +1054,37 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="3">
-        <v>16</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="7">
+      <c r="G17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="8" t="n">
         <v>30</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="9">
+        <v>18</v>
+      </c>
+      <c r="K17" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="10" t="n">
         <v>4</v>
       </c>
       <c r="M17" s="1"/>
@@ -1330,37 +1102,37 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="7">
-        <v>30</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="7">
-        <v>30</v>
-      </c>
-      <c r="L18" s="9">
+      <c r="G18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="L18" s="10" t="n">
         <v>4</v>
       </c>
       <c r="M18" s="1"/>
@@ -1378,37 +1150,37 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="7">
+      <c r="G19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="8" t="n">
         <v>30</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="7">
-        <v>30</v>
-      </c>
-      <c r="L19" s="9">
+        <v>18</v>
+      </c>
+      <c r="K19" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="L19" s="10" t="n">
         <v>4</v>
       </c>
       <c r="M19" s="1"/>
@@ -1426,37 +1198,37 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="7">
-        <v>30</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="9">
+      <c r="G20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="10" t="n">
         <v>90</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="11" t="n">
         <v>4</v>
       </c>
       <c r="M20" s="1"/>
@@ -1474,37 +1246,37 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="7">
+      <c r="G21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="8" t="n">
         <v>30</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="9">
+        <v>18</v>
+      </c>
+      <c r="K21" s="10" t="n">
         <v>90</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="11" t="n">
         <v>4</v>
       </c>
       <c r="M21" s="1"/>
@@ -1522,37 +1294,37 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="7">
-        <v>30</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="9">
+      <c r="G22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="10" t="n">
         <v>-1</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="10" t="n">
         <v>3</v>
       </c>
       <c r="M22" s="1"/>
@@ -1570,37 +1342,37 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="7">
-        <v>30</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" s="9">
+      <c r="K23" s="10" t="n">
         <v>-1</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="10" t="n">
         <v>3</v>
       </c>
       <c r="M23" s="1"/>
@@ -1618,37 +1390,37 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="11" t="n">
         <v>23</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="7">
-        <v>30</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="9">
-        <v>15</v>
-      </c>
-      <c r="L24" s="9">
+      <c r="G24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="L24" s="10" t="n">
         <v>3</v>
       </c>
       <c r="M24" s="1"/>
@@ -1666,37 +1438,37 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="7">
-        <v>30</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="9">
-        <v>15</v>
-      </c>
-      <c r="L25" s="9">
+      <c r="K25" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="L25" s="10" t="n">
         <v>3</v>
       </c>
       <c r="M25" s="1"/>
@@ -1714,37 +1486,37 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="7">
-        <v>30</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="9">
+      <c r="G26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="10" t="n">
         <v>3</v>
       </c>
       <c r="M26" s="1"/>
@@ -1762,37 +1534,37 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="11" t="n">
         <v>26</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="7">
-        <v>30</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27" s="9">
+      <c r="K27" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L27" s="10" t="n">
         <v>3</v>
       </c>
       <c r="M27" s="1"/>
@@ -1810,37 +1582,37 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="11" t="n">
         <v>27</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="7">
-        <v>30</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" s="7">
-        <v>30</v>
-      </c>
-      <c r="L28" s="9">
+      <c r="G28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="L28" s="10" t="n">
         <v>3</v>
       </c>
       <c r="M28" s="1"/>
@@ -1858,37 +1630,37 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="7">
-        <v>30</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" s="7">
-        <v>30</v>
-      </c>
-      <c r="L29" s="9">
+      <c r="K29" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="L29" s="10" t="n">
         <v>3</v>
       </c>
       <c r="M29" s="1"/>
@@ -1906,37 +1678,37 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="7">
-        <v>30</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K30" s="9">
+      <c r="G30" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="10" t="n">
         <v>90</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L30" s="11" t="n">
         <v>3</v>
       </c>
       <c r="M30" s="1"/>
@@ -1954,37 +1726,37 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="10">
-        <v>30</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="C31" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="7">
-        <v>30</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" s="9">
+      <c r="K31" s="10" t="n">
         <v>90</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L31" s="11" t="n">
         <v>3</v>
       </c>
       <c r="M31" s="1"/>
@@ -2002,37 +1774,37 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="11" t="n">
         <v>31</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="7">
-        <v>30</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="9">
+      <c r="G32" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="10" t="n">
         <v>-1</v>
       </c>
-      <c r="L32" s="9">
+      <c r="L32" s="10" t="n">
         <v>4</v>
       </c>
       <c r="M32" s="1"/>
@@ -2050,37 +1822,37 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="7">
-        <v>30</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K33" s="9">
+      <c r="K33" s="10" t="n">
         <v>-1</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L33" s="10" t="n">
         <v>4</v>
       </c>
       <c r="M33" s="1"/>
@@ -2098,37 +1870,37 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="4" t="n">
         <v>33</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" s="7">
-        <v>30</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K34" s="9">
-        <v>15</v>
-      </c>
-      <c r="L34" s="9">
+      <c r="G34" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="L34" s="10" t="n">
         <v>4</v>
       </c>
       <c r="M34" s="1"/>
@@ -2146,37 +1918,37 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="11" t="n">
         <v>34</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="7">
-        <v>30</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35" s="9">
-        <v>15</v>
-      </c>
-      <c r="L35" s="9">
+      <c r="K35" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="L35" s="10" t="n">
         <v>4</v>
       </c>
       <c r="M35" s="1"/>
@@ -2194,37 +1966,37 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="11" t="n">
         <v>35</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="7">
-        <v>30</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K36" s="9">
+      <c r="G36" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L36" s="10" t="n">
         <v>4</v>
       </c>
       <c r="M36" s="1"/>
@@ -2242,37 +2014,37 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="7">
-        <v>30</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37" s="9">
+      <c r="K37" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="L37" s="9">
+      <c r="L37" s="10" t="n">
         <v>4</v>
       </c>
       <c r="M37" s="1"/>
@@ -2290,37 +2062,37 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="4" t="n">
         <v>37</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" s="7">
-        <v>30</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K38" s="7">
-        <v>30</v>
-      </c>
-      <c r="L38" s="9">
+      <c r="G38" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="L38" s="10" t="n">
         <v>4</v>
       </c>
       <c r="M38" s="1"/>
@@ -2338,37 +2110,37 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="11" t="n">
         <v>38</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="7">
-        <v>30</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39" s="7">
-        <v>30</v>
-      </c>
-      <c r="L39" s="9">
+      <c r="K39" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="L39" s="10" t="n">
         <v>4</v>
       </c>
       <c r="M39" s="1"/>
@@ -2386,37 +2158,37 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="11" t="n">
         <v>39</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" s="7">
-        <v>30</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K40" s="9">
+      <c r="G40" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="10" t="n">
         <v>90</v>
       </c>
-      <c r="L40" s="10">
+      <c r="L40" s="11" t="n">
         <v>4</v>
       </c>
       <c r="M40" s="1"/>
@@ -2434,37 +2206,37 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H41" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I41" s="7">
-        <v>30</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K41" s="9">
+      <c r="K41" s="10" t="n">
         <v>90</v>
       </c>
-      <c r="L41" s="10">
+      <c r="L41" s="11" t="n">
         <v>4</v>
       </c>
       <c r="M41" s="1"/>
@@ -2483,7 +2255,12 @@
       <c r="Z41" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/bioSample/bioSample_J.PLAGGENBERG_01.10.20.xlsx
+++ b/bioSample/bioSample_J.PLAGGENBERG_01.10.20.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/bioSample/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BA1FB9-ECE4-8C4F-BF7D-B7E8DD35796E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="15720" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -22,95 +35,76 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="20">
   <si>
-    <t xml:space="preserve">harvestDate</t>
+    <t>harvestDate</t>
   </si>
   <si>
-    <t xml:space="preserve">harvester</t>
+    <t>harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">bioSampleNumber</t>
+    <t>bioSampleNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">experimentDesign</t>
+    <t>experimentDesign</t>
   </si>
   <si>
-    <t xml:space="preserve">experimentObservations</t>
+    <t>experimentObservations</t>
   </si>
   <si>
-    <t xml:space="preserve">strain</t>
+    <t>strain</t>
   </si>
   <si>
-    <t xml:space="preserve">genotype</t>
+    <t>genotype</t>
   </si>
   <si>
-    <t xml:space="preserve">floodmedia</t>
+    <t>floodmedia</t>
   </si>
   <si>
-    <t xml:space="preserve">inductionDelay</t>
+    <t>inductionDelay</t>
   </si>
   <si>
-    <t xml:space="preserve">treatment</t>
+    <t>treatment</t>
   </si>
   <si>
-    <t xml:space="preserve">timePoint</t>
+    <t>timePoint</t>
   </si>
   <si>
-    <t xml:space="preserve">replicate</t>
+    <t>replicate</t>
   </si>
   <si>
-    <t xml:space="preserve">01.10.20</t>
+    <t>01.10.20</t>
   </si>
   <si>
-    <t xml:space="preserve">J.PLAGGENBERG</t>
+    <t>J.PLAGGENBERG</t>
   </si>
   <si>
-    <t xml:space="preserve">ZEV_induction</t>
+    <t>ZEV_induction</t>
   </si>
   <si>
-    <t xml:space="preserve">GAL4</t>
+    <t>GAL4</t>
   </si>
   <si>
-    <t xml:space="preserve">SCGal</t>
+    <t>SCGal</t>
   </si>
   <si>
-    <t xml:space="preserve">EtOH</t>
+    <t>EtOH</t>
   </si>
   <si>
-    <t xml:space="preserve">Estradiol</t>
+    <t>Estradiol</t>
   </si>
   <si>
-    <t xml:space="preserve">RGT1</t>
+    <t>RGT1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -162,7 +156,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -170,119 +164,368 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H38" activeCellId="0" sqref="F38:H45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="14.5"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" customWidth="1"/>
+    <col min="12" max="12" width="7.83203125" customWidth="1"/>
+    <col min="13" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -334,14 +577,14 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -355,16 +598,16 @@
       <c r="H2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="8" t="n">
+      <c r="I2" s="8">
         <v>30</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="10" t="n">
+      <c r="K2" s="10">
         <v>-1</v>
       </c>
-      <c r="L2" s="10" t="n">
+      <c r="L2" s="10">
         <v>3</v>
       </c>
       <c r="M2" s="1"/>
@@ -382,14 +625,14 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="11" t="n">
+      <c r="C3" s="11">
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -403,16 +646,16 @@
       <c r="H3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="8" t="n">
+      <c r="I3" s="8">
         <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="10" t="n">
+      <c r="K3" s="10">
         <v>-1</v>
       </c>
-      <c r="L3" s="10" t="n">
+      <c r="L3" s="10">
         <v>3</v>
       </c>
       <c r="M3" s="1"/>
@@ -430,14 +673,14 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="11" t="n">
+      <c r="C4" s="11">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -451,16 +694,16 @@
       <c r="H4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="8" t="n">
+      <c r="I4" s="8">
         <v>30</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="L4" s="10" t="n">
+      <c r="K4" s="10">
+        <v>15</v>
+      </c>
+      <c r="L4" s="10">
         <v>3</v>
       </c>
       <c r="M4" s="1"/>
@@ -478,14 +721,14 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="4">
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -499,16 +742,16 @@
       <c r="H5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="8" t="n">
+      <c r="I5" s="8">
         <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="L5" s="10" t="n">
+      <c r="K5" s="10">
+        <v>15</v>
+      </c>
+      <c r="L5" s="10">
         <v>3</v>
       </c>
       <c r="M5" s="1"/>
@@ -526,14 +769,14 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="4">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -547,16 +790,16 @@
       <c r="H6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="8" t="n">
+      <c r="I6" s="8">
         <v>30</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="10" t="n">
+      <c r="K6" s="10">
         <v>20</v>
       </c>
-      <c r="L6" s="10" t="n">
+      <c r="L6" s="10">
         <v>3</v>
       </c>
       <c r="M6" s="1"/>
@@ -574,14 +817,14 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C7" s="11">
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -595,16 +838,16 @@
       <c r="H7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="8" t="n">
+      <c r="I7" s="8">
         <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="10" t="n">
+      <c r="K7" s="10">
         <v>20</v>
       </c>
-      <c r="L7" s="10" t="n">
+      <c r="L7" s="10">
         <v>3</v>
       </c>
       <c r="M7" s="1"/>
@@ -622,14 +865,14 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11" t="n">
+      <c r="C8" s="11">
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -643,16 +886,16 @@
       <c r="H8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="8" t="n">
+      <c r="I8" s="8">
         <v>30</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="L8" s="10" t="n">
+      <c r="K8" s="8">
+        <v>30</v>
+      </c>
+      <c r="L8" s="10">
         <v>3</v>
       </c>
       <c r="M8" s="1"/>
@@ -670,14 +913,14 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="4">
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -691,16 +934,16 @@
       <c r="H9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="8" t="n">
+      <c r="I9" s="8">
         <v>30</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="L9" s="10" t="n">
+      <c r="K9" s="8">
+        <v>30</v>
+      </c>
+      <c r="L9" s="10">
         <v>3</v>
       </c>
       <c r="M9" s="1"/>
@@ -718,14 +961,14 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="4">
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -739,16 +982,16 @@
       <c r="H10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="8" t="n">
+      <c r="I10" s="8">
         <v>30</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="10" t="n">
+      <c r="K10" s="10">
         <v>90</v>
       </c>
-      <c r="L10" s="11" t="n">
+      <c r="L10" s="11">
         <v>3</v>
       </c>
       <c r="M10" s="1"/>
@@ -766,14 +1009,14 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="11" t="n">
+      <c r="C11" s="11">
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -787,16 +1030,16 @@
       <c r="H11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="8" t="n">
+      <c r="I11" s="8">
         <v>30</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="10" t="n">
+      <c r="K11" s="10">
         <v>90</v>
       </c>
-      <c r="L11" s="11" t="n">
+      <c r="L11" s="11">
         <v>3</v>
       </c>
       <c r="M11" s="1"/>
@@ -814,14 +1057,14 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="11" t="n">
+      <c r="C12" s="11">
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -835,16 +1078,16 @@
       <c r="H12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="8" t="n">
+      <c r="I12" s="8">
         <v>30</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="10" t="n">
+      <c r="K12" s="10">
         <v>-1</v>
       </c>
-      <c r="L12" s="10" t="n">
+      <c r="L12" s="10">
         <v>4</v>
       </c>
       <c r="M12" s="1"/>
@@ -862,14 +1105,14 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="4">
         <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -883,16 +1126,16 @@
       <c r="H13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="8" t="n">
+      <c r="I13" s="8">
         <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="10" t="n">
+      <c r="K13" s="10">
         <v>-1</v>
       </c>
-      <c r="L13" s="10" t="n">
+      <c r="L13" s="10">
         <v>4</v>
       </c>
       <c r="M13" s="1"/>
@@ -910,14 +1153,14 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="4">
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -931,16 +1174,16 @@
       <c r="H14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="8" t="n">
+      <c r="I14" s="8">
         <v>30</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="L14" s="10" t="n">
+      <c r="K14" s="10">
+        <v>15</v>
+      </c>
+      <c r="L14" s="10">
         <v>4</v>
       </c>
       <c r="M14" s="1"/>
@@ -958,14 +1201,14 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="11">
         <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -979,16 +1222,16 @@
       <c r="H15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="8" t="n">
+      <c r="I15" s="8">
         <v>30</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="L15" s="10" t="n">
+      <c r="K15" s="10">
+        <v>15</v>
+      </c>
+      <c r="L15" s="10">
         <v>4</v>
       </c>
       <c r="M15" s="1"/>
@@ -1006,14 +1249,14 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="11" t="n">
+      <c r="C16" s="11">
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -1027,16 +1270,16 @@
       <c r="H16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="8" t="n">
+      <c r="I16" s="8">
         <v>30</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="10" t="n">
+      <c r="K16" s="10">
         <v>20</v>
       </c>
-      <c r="L16" s="10" t="n">
+      <c r="L16" s="10">
         <v>4</v>
       </c>
       <c r="M16" s="1"/>
@@ -1054,14 +1297,14 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="4">
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1075,16 +1318,16 @@
       <c r="H17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="8" t="n">
+      <c r="I17" s="8">
         <v>30</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="10" t="n">
+      <c r="K17" s="10">
         <v>20</v>
       </c>
-      <c r="L17" s="10" t="n">
+      <c r="L17" s="10">
         <v>4</v>
       </c>
       <c r="M17" s="1"/>
@@ -1102,14 +1345,14 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="4">
         <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -1123,16 +1366,16 @@
       <c r="H18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="8" t="n">
+      <c r="I18" s="8">
         <v>30</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="L18" s="10" t="n">
+      <c r="K18" s="8">
+        <v>30</v>
+      </c>
+      <c r="L18" s="10">
         <v>4</v>
       </c>
       <c r="M18" s="1"/>
@@ -1150,14 +1393,14 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="11" t="n">
+      <c r="C19" s="11">
         <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1171,16 +1414,16 @@
       <c r="H19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="8" t="n">
+      <c r="I19" s="8">
         <v>30</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="L19" s="10" t="n">
+      <c r="K19" s="8">
+        <v>30</v>
+      </c>
+      <c r="L19" s="10">
         <v>4</v>
       </c>
       <c r="M19" s="1"/>
@@ -1198,14 +1441,14 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="11" t="n">
+      <c r="C20" s="11">
         <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -1219,16 +1462,16 @@
       <c r="H20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="8" t="n">
+      <c r="I20" s="8">
         <v>30</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="10" t="n">
+      <c r="K20" s="10">
         <v>90</v>
       </c>
-      <c r="L20" s="11" t="n">
+      <c r="L20" s="11">
         <v>4</v>
       </c>
       <c r="M20" s="1"/>
@@ -1246,14 +1489,14 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="4">
         <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -1267,16 +1510,16 @@
       <c r="H21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="8" t="n">
+      <c r="I21" s="8">
         <v>30</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="10" t="n">
+      <c r="K21" s="10">
         <v>90</v>
       </c>
-      <c r="L21" s="11" t="n">
+      <c r="L21" s="11">
         <v>4</v>
       </c>
       <c r="M21" s="1"/>
@@ -1294,14 +1537,14 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="4" t="n">
+      <c r="C22" s="4">
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -1315,16 +1558,16 @@
       <c r="H22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="8" t="n">
+      <c r="I22" s="8">
         <v>30</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="10" t="n">
+      <c r="K22" s="10">
         <v>-1</v>
       </c>
-      <c r="L22" s="10" t="n">
+      <c r="L22" s="10">
         <v>3</v>
       </c>
       <c r="M22" s="1"/>
@@ -1342,14 +1585,14 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="11" t="n">
+      <c r="C23" s="11">
         <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -1363,16 +1606,16 @@
       <c r="H23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="8" t="n">
+      <c r="I23" s="8">
         <v>30</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="10" t="n">
+      <c r="K23" s="10">
         <v>-1</v>
       </c>
-      <c r="L23" s="10" t="n">
+      <c r="L23" s="10">
         <v>3</v>
       </c>
       <c r="M23" s="1"/>
@@ -1390,14 +1633,14 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="11" t="n">
+      <c r="C24" s="11">
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -1411,16 +1654,16 @@
       <c r="H24" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="8" t="n">
+      <c r="I24" s="8">
         <v>30</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="L24" s="10" t="n">
+      <c r="K24" s="10">
+        <v>15</v>
+      </c>
+      <c r="L24" s="10">
         <v>3</v>
       </c>
       <c r="M24" s="1"/>
@@ -1438,14 +1681,14 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="4" t="n">
+      <c r="C25" s="4">
         <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -1459,16 +1702,16 @@
       <c r="H25" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="8" t="n">
+      <c r="I25" s="8">
         <v>30</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="L25" s="10" t="n">
+      <c r="K25" s="10">
+        <v>15</v>
+      </c>
+      <c r="L25" s="10">
         <v>3</v>
       </c>
       <c r="M25" s="1"/>
@@ -1486,14 +1729,14 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="4" t="n">
+      <c r="C26" s="4">
         <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -1507,16 +1750,16 @@
       <c r="H26" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="8" t="n">
+      <c r="I26" s="8">
         <v>30</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="10" t="n">
+      <c r="K26" s="10">
         <v>20</v>
       </c>
-      <c r="L26" s="10" t="n">
+      <c r="L26" s="10">
         <v>3</v>
       </c>
       <c r="M26" s="1"/>
@@ -1534,14 +1777,14 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="11" t="n">
+      <c r="C27" s="11">
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -1555,16 +1798,16 @@
       <c r="H27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="8" t="n">
+      <c r="I27" s="8">
         <v>30</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K27" s="10" t="n">
+      <c r="K27" s="10">
         <v>20</v>
       </c>
-      <c r="L27" s="10" t="n">
+      <c r="L27" s="10">
         <v>3</v>
       </c>
       <c r="M27" s="1"/>
@@ -1582,14 +1825,14 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="11" t="n">
+      <c r="C28" s="11">
         <v>27</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -1603,16 +1846,16 @@
       <c r="H28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="8" t="n">
+      <c r="I28" s="8">
         <v>30</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="L28" s="10" t="n">
+      <c r="K28" s="8">
+        <v>30</v>
+      </c>
+      <c r="L28" s="10">
         <v>3</v>
       </c>
       <c r="M28" s="1"/>
@@ -1630,14 +1873,14 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="4" t="n">
+      <c r="C29" s="4">
         <v>28</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -1651,16 +1894,16 @@
       <c r="H29" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="8" t="n">
+      <c r="I29" s="8">
         <v>30</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="L29" s="10" t="n">
+      <c r="K29" s="8">
+        <v>30</v>
+      </c>
+      <c r="L29" s="10">
         <v>3</v>
       </c>
       <c r="M29" s="1"/>
@@ -1678,14 +1921,14 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="4" t="n">
+      <c r="C30" s="4">
         <v>29</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -1699,16 +1942,16 @@
       <c r="H30" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="8" t="n">
+      <c r="I30" s="8">
         <v>30</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="10" t="n">
+      <c r="K30" s="10">
         <v>90</v>
       </c>
-      <c r="L30" s="11" t="n">
+      <c r="L30" s="11">
         <v>3</v>
       </c>
       <c r="M30" s="1"/>
@@ -1726,14 +1969,14 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="11" t="n">
+      <c r="C31" s="11">
         <v>30</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -1747,16 +1990,16 @@
       <c r="H31" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I31" s="8" t="n">
+      <c r="I31" s="8">
         <v>30</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K31" s="10" t="n">
+      <c r="K31" s="10">
         <v>90</v>
       </c>
-      <c r="L31" s="11" t="n">
+      <c r="L31" s="11">
         <v>3</v>
       </c>
       <c r="M31" s="1"/>
@@ -1774,14 +2017,14 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="11" t="n">
+      <c r="C32" s="11">
         <v>31</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -1795,16 +2038,16 @@
       <c r="H32" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="8" t="n">
+      <c r="I32" s="8">
         <v>30</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K32" s="10" t="n">
+      <c r="K32" s="10">
         <v>-1</v>
       </c>
-      <c r="L32" s="10" t="n">
+      <c r="L32" s="10">
         <v>4</v>
       </c>
       <c r="M32" s="1"/>
@@ -1822,14 +2065,14 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="4" t="n">
+      <c r="C33" s="4">
         <v>32</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -1843,16 +2086,16 @@
       <c r="H33" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="8" t="n">
+      <c r="I33" s="8">
         <v>30</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K33" s="10" t="n">
+      <c r="K33" s="10">
         <v>-1</v>
       </c>
-      <c r="L33" s="10" t="n">
+      <c r="L33" s="10">
         <v>4</v>
       </c>
       <c r="M33" s="1"/>
@@ -1870,14 +2113,14 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="4" t="n">
+      <c r="C34" s="4">
         <v>33</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -1891,16 +2134,16 @@
       <c r="H34" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="8" t="n">
+      <c r="I34" s="8">
         <v>30</v>
       </c>
       <c r="J34" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="L34" s="10" t="n">
+      <c r="K34" s="10">
+        <v>15</v>
+      </c>
+      <c r="L34" s="10">
         <v>4</v>
       </c>
       <c r="M34" s="1"/>
@@ -1918,14 +2161,14 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="11" t="n">
+      <c r="C35" s="11">
         <v>34</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -1939,16 +2182,16 @@
       <c r="H35" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I35" s="8" t="n">
+      <c r="I35" s="8">
         <v>30</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K35" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="L35" s="10" t="n">
+      <c r="K35" s="10">
+        <v>15</v>
+      </c>
+      <c r="L35" s="10">
         <v>4</v>
       </c>
       <c r="M35" s="1"/>
@@ -1966,14 +2209,14 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="11" t="n">
+      <c r="C36" s="11">
         <v>35</v>
       </c>
       <c r="D36" s="5" t="s">
@@ -1987,16 +2230,16 @@
       <c r="H36" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="8" t="n">
+      <c r="I36" s="8">
         <v>30</v>
       </c>
       <c r="J36" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K36" s="10" t="n">
+      <c r="K36" s="10">
         <v>20</v>
       </c>
-      <c r="L36" s="10" t="n">
+      <c r="L36" s="10">
         <v>4</v>
       </c>
       <c r="M36" s="1"/>
@@ -2014,14 +2257,14 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="4" t="n">
+      <c r="C37" s="4">
         <v>36</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -2035,16 +2278,16 @@
       <c r="H37" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="8" t="n">
+      <c r="I37" s="8">
         <v>30</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K37" s="10" t="n">
+      <c r="K37" s="10">
         <v>20</v>
       </c>
-      <c r="L37" s="10" t="n">
+      <c r="L37" s="10">
         <v>4</v>
       </c>
       <c r="M37" s="1"/>
@@ -2062,14 +2305,14 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="4" t="n">
+      <c r="C38" s="4">
         <v>37</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -2083,16 +2326,16 @@
       <c r="H38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I38" s="8" t="n">
+      <c r="I38" s="8">
         <v>30</v>
       </c>
       <c r="J38" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="L38" s="10" t="n">
+      <c r="K38" s="8">
+        <v>30</v>
+      </c>
+      <c r="L38" s="10">
         <v>4</v>
       </c>
       <c r="M38" s="1"/>
@@ -2110,14 +2353,14 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="11" t="n">
+      <c r="C39" s="11">
         <v>38</v>
       </c>
       <c r="D39" s="5" t="s">
@@ -2131,16 +2374,16 @@
       <c r="H39" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I39" s="8" t="n">
+      <c r="I39" s="8">
         <v>30</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K39" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="L39" s="10" t="n">
+      <c r="K39" s="8">
+        <v>30</v>
+      </c>
+      <c r="L39" s="10">
         <v>4</v>
       </c>
       <c r="M39" s="1"/>
@@ -2158,14 +2401,14 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="11" t="n">
+      <c r="C40" s="11">
         <v>39</v>
       </c>
       <c r="D40" s="5" t="s">
@@ -2179,16 +2422,16 @@
       <c r="H40" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I40" s="8" t="n">
+      <c r="I40" s="8">
         <v>30</v>
       </c>
       <c r="J40" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K40" s="10" t="n">
+      <c r="K40" s="10">
         <v>90</v>
       </c>
-      <c r="L40" s="11" t="n">
+      <c r="L40" s="11">
         <v>4</v>
       </c>
       <c r="M40" s="1"/>
@@ -2206,14 +2449,14 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="4" t="n">
+      <c r="C41" s="4">
         <v>40</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -2227,16 +2470,16 @@
       <c r="H41" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="8" t="n">
+      <c r="I41" s="8">
         <v>30</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K41" s="10" t="n">
+      <c r="K41" s="10">
         <v>90</v>
       </c>
-      <c r="L41" s="11" t="n">
+      <c r="L41" s="11">
         <v>4</v>
       </c>
       <c r="M41" s="1"/>
@@ -2255,12 +2498,7 @@
       <c r="Z41" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/bioSample/bioSample_J.PLAGGENBERG_01.10.20.xlsx
+++ b/bioSample/bioSample_J.PLAGGENBERG_01.10.20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BA1FB9-ECE4-8C4F-BF7D-B7E8DD35796E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4270B438-CA5A-1C42-86C0-FB029CDD6529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="15720" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="18400" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -167,28 +167,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,17 +505,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z41"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:L8"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" customWidth="1"/>
@@ -526,43 +528,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="5"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -578,39 +580,39 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="8">
-        <v>30</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="D2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="10">
+        <v>30</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="12">
         <v>-1</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="12">
         <v>3</v>
       </c>
-      <c r="M2" s="1"/>
+      <c r="M2" s="5"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -626,39 +628,39 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="8">
-        <v>30</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="10">
+        <v>30</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="12">
         <v>-1</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="12">
         <v>3</v>
       </c>
-      <c r="M3" s="1"/>
+      <c r="M3" s="5"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -674,39 +676,39 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="8">
-        <v>30</v>
-      </c>
-      <c r="J4" s="9" t="s">
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="10">
+        <v>30</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="10">
-        <v>15</v>
-      </c>
-      <c r="L4" s="10">
+      <c r="K4" s="12">
+        <v>15</v>
+      </c>
+      <c r="L4" s="12">
         <v>3</v>
       </c>
-      <c r="M4" s="1"/>
+      <c r="M4" s="5"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -722,39 +724,39 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="8">
-        <v>30</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="D5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="10">
+        <v>30</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="10">
-        <v>15</v>
-      </c>
-      <c r="L5" s="10">
+      <c r="K5" s="12">
+        <v>15</v>
+      </c>
+      <c r="L5" s="12">
         <v>3</v>
       </c>
-      <c r="M5" s="1"/>
+      <c r="M5" s="5"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -770,39 +772,39 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="A6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="8">
-        <v>30</v>
-      </c>
-      <c r="J6" s="9" t="s">
+      <c r="D6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="10">
+        <v>30</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="12">
         <v>20</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="12">
         <v>3</v>
       </c>
-      <c r="M6" s="1"/>
+      <c r="M6" s="5"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -818,39 +820,39 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4">
         <v>6</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="8">
-        <v>30</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="D7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="10">
+        <v>30</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="12">
         <v>20</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="12">
         <v>3</v>
       </c>
-      <c r="M7" s="1"/>
+      <c r="M7" s="5"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -866,39 +868,39 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4">
         <v>7</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="8">
-        <v>30</v>
-      </c>
-      <c r="J8" s="9" t="s">
+      <c r="D8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="10">
+        <v>30</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="8">
-        <v>30</v>
-      </c>
-      <c r="L8" s="10">
+      <c r="K8" s="10">
+        <v>30</v>
+      </c>
+      <c r="L8" s="12">
         <v>3</v>
       </c>
-      <c r="M8" s="1"/>
+      <c r="M8" s="5"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -914,39 +916,39 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="A9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="8">
-        <v>30</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="10">
+        <v>30</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="8">
-        <v>30</v>
-      </c>
-      <c r="L9" s="10">
+      <c r="K9" s="10">
+        <v>30</v>
+      </c>
+      <c r="L9" s="12">
         <v>3</v>
       </c>
-      <c r="M9" s="1"/>
+      <c r="M9" s="5"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -962,39 +964,39 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3">
         <v>9</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="8">
-        <v>30</v>
-      </c>
-      <c r="J10" s="9" t="s">
+      <c r="D10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="10">
+        <v>30</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="12">
         <v>90</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="4">
         <v>3</v>
       </c>
-      <c r="M10" s="1"/>
+      <c r="M10" s="5"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1010,39 +1012,39 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="A11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4">
         <v>10</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="8">
-        <v>30</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="D11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="10">
+        <v>30</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="12">
         <v>90</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="4">
         <v>3</v>
       </c>
-      <c r="M11" s="1"/>
+      <c r="M11" s="5"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1058,39 +1060,39 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="A12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4">
         <v>11</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="8">
-        <v>30</v>
-      </c>
-      <c r="J12" s="9" t="s">
+      <c r="D12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="10">
+        <v>30</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="12">
         <v>-1</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="12">
         <v>4</v>
       </c>
-      <c r="M12" s="1"/>
+      <c r="M12" s="5"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1106,39 +1108,39 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4">
-        <v>12</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="8">
-        <v>30</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="A13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="10">
+        <v>30</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="12">
         <v>-1</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="12">
         <v>4</v>
       </c>
-      <c r="M13" s="1"/>
+      <c r="M13" s="5"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1154,39 +1156,39 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4">
-        <v>13</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="8">
-        <v>30</v>
-      </c>
-      <c r="J14" s="9" t="s">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3">
+        <v>13</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="10">
+        <v>30</v>
+      </c>
+      <c r="J14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="10">
-        <v>15</v>
-      </c>
-      <c r="L14" s="10">
+      <c r="K14" s="12">
+        <v>15</v>
+      </c>
+      <c r="L14" s="12">
         <v>4</v>
       </c>
-      <c r="M14" s="1"/>
+      <c r="M14" s="5"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1202,39 +1204,39 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="11">
-        <v>14</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="8">
-        <v>30</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="A15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4">
+        <v>14</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="10">
+        <v>30</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="10">
-        <v>15</v>
-      </c>
-      <c r="L15" s="10">
+      <c r="K15" s="12">
+        <v>15</v>
+      </c>
+      <c r="L15" s="12">
         <v>4</v>
       </c>
-      <c r="M15" s="1"/>
+      <c r="M15" s="5"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1250,39 +1252,39 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="11">
-        <v>15</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="8">
-        <v>30</v>
-      </c>
-      <c r="J16" s="9" t="s">
+      <c r="A16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4">
+        <v>15</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="10">
+        <v>30</v>
+      </c>
+      <c r="J16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="12">
         <v>20</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="12">
         <v>4</v>
       </c>
-      <c r="M16" s="1"/>
+      <c r="M16" s="5"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1298,39 +1300,39 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="4">
-        <v>16</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="8">
-        <v>30</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="A17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3">
+        <v>16</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="10">
+        <v>30</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="12">
         <v>20</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="12">
         <v>4</v>
       </c>
-      <c r="M17" s="1"/>
+      <c r="M17" s="5"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -1346,39 +1348,39 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="A18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3">
         <v>17</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="8">
-        <v>30</v>
-      </c>
-      <c r="J18" s="9" t="s">
+      <c r="D18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="10">
+        <v>30</v>
+      </c>
+      <c r="J18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="8">
-        <v>30</v>
-      </c>
-      <c r="L18" s="10">
+      <c r="K18" s="10">
+        <v>30</v>
+      </c>
+      <c r="L18" s="12">
         <v>4</v>
       </c>
-      <c r="M18" s="1"/>
+      <c r="M18" s="5"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -1394,39 +1396,39 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="11">
+      <c r="A19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="4">
         <v>18</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="8">
-        <v>30</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="D19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="10">
+        <v>30</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="8">
-        <v>30</v>
-      </c>
-      <c r="L19" s="10">
+      <c r="K19" s="10">
+        <v>30</v>
+      </c>
+      <c r="L19" s="12">
         <v>4</v>
       </c>
-      <c r="M19" s="1"/>
+      <c r="M19" s="5"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1442,39 +1444,39 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="11">
+      <c r="A20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="4">
         <v>19</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="8">
-        <v>30</v>
-      </c>
-      <c r="J20" s="9" t="s">
+      <c r="D20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="10">
+        <v>30</v>
+      </c>
+      <c r="J20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="12">
         <v>90</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="4">
         <v>4</v>
       </c>
-      <c r="M20" s="1"/>
+      <c r="M20" s="5"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -1490,39 +1492,39 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="A21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="3">
         <v>20</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="8">
-        <v>30</v>
-      </c>
-      <c r="J21" s="1" t="s">
+      <c r="D21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="10">
+        <v>30</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="12">
         <v>90</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="4">
         <v>4</v>
       </c>
-      <c r="M21" s="1"/>
+      <c r="M21" s="5"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -1538,39 +1540,39 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="A22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3">
         <v>21</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="12" t="s">
+      <c r="D22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="8">
-        <v>30</v>
-      </c>
-      <c r="J22" s="9" t="s">
+      <c r="H22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="10">
+        <v>30</v>
+      </c>
+      <c r="J22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="12">
         <v>-1</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="12">
         <v>3</v>
       </c>
-      <c r="M22" s="1"/>
+      <c r="M22" s="5"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -1586,39 +1588,39 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="11">
+      <c r="A23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="4">
         <v>22</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="12" t="s">
+      <c r="D23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="8">
-        <v>30</v>
-      </c>
-      <c r="J23" s="1" t="s">
+      <c r="H23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="10">
+        <v>30</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="12">
         <v>-1</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="12">
         <v>3</v>
       </c>
-      <c r="M23" s="1"/>
+      <c r="M23" s="5"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -1634,39 +1636,39 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="11">
+      <c r="A24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="4">
         <v>23</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="12" t="s">
+      <c r="D24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="8">
-        <v>30</v>
-      </c>
-      <c r="J24" s="9" t="s">
+      <c r="H24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="10">
+        <v>30</v>
+      </c>
+      <c r="J24" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="10">
-        <v>15</v>
-      </c>
-      <c r="L24" s="10">
+      <c r="K24" s="12">
+        <v>15</v>
+      </c>
+      <c r="L24" s="12">
         <v>3</v>
       </c>
-      <c r="M24" s="1"/>
+      <c r="M24" s="5"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -1682,39 +1684,39 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="4">
+      <c r="A25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="3">
         <v>24</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="12" t="s">
+      <c r="D25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="8">
-        <v>30</v>
-      </c>
-      <c r="J25" s="1" t="s">
+      <c r="H25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="10">
+        <v>30</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="10">
-        <v>15</v>
-      </c>
-      <c r="L25" s="10">
+      <c r="K25" s="12">
+        <v>15</v>
+      </c>
+      <c r="L25" s="12">
         <v>3</v>
       </c>
-      <c r="M25" s="1"/>
+      <c r="M25" s="5"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -1730,39 +1732,39 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="4">
+      <c r="A26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="3">
         <v>25</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="12" t="s">
+      <c r="D26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="8">
-        <v>30</v>
-      </c>
-      <c r="J26" s="9" t="s">
+      <c r="H26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="10">
+        <v>30</v>
+      </c>
+      <c r="J26" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="12">
         <v>20</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L26" s="12">
         <v>3</v>
       </c>
-      <c r="M26" s="1"/>
+      <c r="M26" s="5"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -1778,39 +1780,39 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="11">
+      <c r="A27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="4">
         <v>26</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="12" t="s">
+      <c r="D27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="8">
-        <v>30</v>
-      </c>
-      <c r="J27" s="1" t="s">
+      <c r="H27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="10">
+        <v>30</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="12">
         <v>20</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="12">
         <v>3</v>
       </c>
-      <c r="M27" s="1"/>
+      <c r="M27" s="5"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -1826,39 +1828,39 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="11">
+      <c r="A28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="4">
         <v>27</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="12" t="s">
+      <c r="D28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="8">
-        <v>30</v>
-      </c>
-      <c r="J28" s="9" t="s">
+      <c r="H28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="10">
+        <v>30</v>
+      </c>
+      <c r="J28" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="8">
-        <v>30</v>
-      </c>
-      <c r="L28" s="10">
+      <c r="K28" s="10">
+        <v>30</v>
+      </c>
+      <c r="L28" s="12">
         <v>3</v>
       </c>
-      <c r="M28" s="1"/>
+      <c r="M28" s="5"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -1874,39 +1876,39 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="4">
+      <c r="A29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="3">
         <v>28</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="12" t="s">
+      <c r="D29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="8">
-        <v>30</v>
-      </c>
-      <c r="J29" s="1" t="s">
+      <c r="H29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="10">
+        <v>30</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="8">
-        <v>30</v>
-      </c>
-      <c r="L29" s="10">
+      <c r="K29" s="10">
+        <v>30</v>
+      </c>
+      <c r="L29" s="12">
         <v>3</v>
       </c>
-      <c r="M29" s="1"/>
+      <c r="M29" s="5"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -1922,39 +1924,39 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="4">
+      <c r="A30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="3">
         <v>29</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="12" t="s">
+      <c r="D30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H30" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="8">
-        <v>30</v>
-      </c>
-      <c r="J30" s="9" t="s">
+      <c r="H30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="10">
+        <v>30</v>
+      </c>
+      <c r="J30" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="12">
         <v>90</v>
       </c>
-      <c r="L30" s="11">
+      <c r="L30" s="4">
         <v>3</v>
       </c>
-      <c r="M30" s="1"/>
+      <c r="M30" s="5"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -1970,39 +1972,39 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="11">
-        <v>30</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="12" t="s">
+      <c r="A31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="4">
+        <v>30</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="8">
-        <v>30</v>
-      </c>
-      <c r="J31" s="1" t="s">
+      <c r="H31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="10">
+        <v>30</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="12">
         <v>90</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L31" s="4">
         <v>3</v>
       </c>
-      <c r="M31" s="1"/>
+      <c r="M31" s="5"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -2018,39 +2020,39 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="11">
+      <c r="A32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="4">
         <v>31</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="12" t="s">
+      <c r="D32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="8">
-        <v>30</v>
-      </c>
-      <c r="J32" s="9" t="s">
+      <c r="H32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="10">
+        <v>30</v>
+      </c>
+      <c r="J32" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="12">
         <v>-1</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="12">
         <v>4</v>
       </c>
-      <c r="M32" s="1"/>
+      <c r="M32" s="5"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -2066,39 +2068,39 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="4">
+      <c r="A33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="3">
         <v>32</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="12" t="s">
+      <c r="D33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="8">
-        <v>30</v>
-      </c>
-      <c r="J33" s="1" t="s">
+      <c r="H33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="10">
+        <v>30</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33" s="12">
         <v>-1</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L33" s="12">
         <v>4</v>
       </c>
-      <c r="M33" s="1"/>
+      <c r="M33" s="5"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -2114,39 +2116,39 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="4">
+      <c r="A34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="3">
         <v>33</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="12" t="s">
+      <c r="D34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="8">
-        <v>30</v>
-      </c>
-      <c r="J34" s="9" t="s">
+      <c r="H34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="10">
+        <v>30</v>
+      </c>
+      <c r="J34" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="10">
-        <v>15</v>
-      </c>
-      <c r="L34" s="10">
+      <c r="K34" s="12">
+        <v>15</v>
+      </c>
+      <c r="L34" s="12">
         <v>4</v>
       </c>
-      <c r="M34" s="1"/>
+      <c r="M34" s="5"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -2162,39 +2164,39 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="11">
+      <c r="A35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="4">
         <v>34</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="12" t="s">
+      <c r="D35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="8">
-        <v>30</v>
-      </c>
-      <c r="J35" s="1" t="s">
+      <c r="H35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="10">
+        <v>30</v>
+      </c>
+      <c r="J35" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K35" s="10">
-        <v>15</v>
-      </c>
-      <c r="L35" s="10">
+      <c r="K35" s="12">
+        <v>15</v>
+      </c>
+      <c r="L35" s="12">
         <v>4</v>
       </c>
-      <c r="M35" s="1"/>
+      <c r="M35" s="5"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -2210,39 +2212,39 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="11">
+      <c r="A36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="4">
         <v>35</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="12" t="s">
+      <c r="D36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="8">
-        <v>30</v>
-      </c>
-      <c r="J36" s="9" t="s">
+      <c r="H36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="10">
+        <v>30</v>
+      </c>
+      <c r="J36" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="12">
         <v>20</v>
       </c>
-      <c r="L36" s="10">
+      <c r="L36" s="12">
         <v>4</v>
       </c>
-      <c r="M36" s="1"/>
+      <c r="M36" s="5"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -2258,39 +2260,39 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="4">
+      <c r="A37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="3">
         <v>36</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="12" t="s">
+      <c r="D37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="8">
-        <v>30</v>
-      </c>
-      <c r="J37" s="1" t="s">
+      <c r="H37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="10">
+        <v>30</v>
+      </c>
+      <c r="J37" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37" s="12">
         <v>20</v>
       </c>
-      <c r="L37" s="10">
+      <c r="L37" s="12">
         <v>4</v>
       </c>
-      <c r="M37" s="1"/>
+      <c r="M37" s="5"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -2306,39 +2308,39 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="4">
+      <c r="A38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="3">
         <v>37</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="12" t="s">
+      <c r="D38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="8">
-        <v>30</v>
-      </c>
-      <c r="J38" s="9" t="s">
+      <c r="H38" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="10">
+        <v>30</v>
+      </c>
+      <c r="J38" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="8">
-        <v>30</v>
-      </c>
-      <c r="L38" s="10">
+      <c r="K38" s="10">
+        <v>30</v>
+      </c>
+      <c r="L38" s="12">
         <v>4</v>
       </c>
-      <c r="M38" s="1"/>
+      <c r="M38" s="5"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -2354,39 +2356,39 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="11">
+      <c r="A39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="4">
         <v>38</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="12" t="s">
+      <c r="D39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="8">
-        <v>30</v>
-      </c>
-      <c r="J39" s="1" t="s">
+      <c r="H39" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="10">
+        <v>30</v>
+      </c>
+      <c r="J39" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K39" s="8">
-        <v>30</v>
-      </c>
-      <c r="L39" s="10">
+      <c r="K39" s="10">
+        <v>30</v>
+      </c>
+      <c r="L39" s="12">
         <v>4</v>
       </c>
-      <c r="M39" s="1"/>
+      <c r="M39" s="5"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -2402,39 +2404,39 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="11">
+      <c r="A40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="4">
         <v>39</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="12" t="s">
+      <c r="D40" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H40" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="8">
-        <v>30</v>
-      </c>
-      <c r="J40" s="9" t="s">
+      <c r="H40" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="10">
+        <v>30</v>
+      </c>
+      <c r="J40" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K40" s="10">
+      <c r="K40" s="12">
         <v>90</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L40" s="4">
         <v>4</v>
       </c>
-      <c r="M40" s="1"/>
+      <c r="M40" s="5"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -2450,39 +2452,39 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="4">
+      <c r="A41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="3">
         <v>40</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="12" t="s">
+      <c r="D41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H41" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="8">
-        <v>30</v>
-      </c>
-      <c r="J41" s="1" t="s">
+      <c r="H41" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="10">
+        <v>30</v>
+      </c>
+      <c r="J41" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K41" s="10">
+      <c r="K41" s="12">
         <v>90</v>
       </c>
-      <c r="L41" s="11">
+      <c r="L41" s="4">
         <v>4</v>
       </c>
-      <c r="M41" s="1"/>
+      <c r="M41" s="5"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -2497,6 +2499,96 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/bioSample/bioSample_J.PLAGGENBERG_01.10.20.xlsx
+++ b/bioSample/bioSample_J.PLAGGENBERG_01.10.20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4270B438-CA5A-1C42-86C0-FB029CDD6529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248FAE86-554E-B540-817E-DD99B0B351C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="18400" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1400" yWindow="2720" windowWidth="17080" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="20">
   <si>
     <t>harvestDate</t>
   </si>
@@ -505,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z47"/>
+  <dimension ref="A1:Z45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -826,8 +826,8 @@
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4">
-        <v>6</v>
+      <c r="C7" s="3">
+        <v>8</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>14</v>
@@ -846,8 +846,8 @@
       <c r="J7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="12">
-        <v>20</v>
+      <c r="K7" s="10">
+        <v>30</v>
       </c>
       <c r="L7" s="12">
         <v>3</v>
@@ -874,8 +874,8 @@
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4">
-        <v>7</v>
+      <c r="C8" s="3">
+        <v>9</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>14</v>
@@ -894,10 +894,10 @@
       <c r="J8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="10">
-        <v>30</v>
-      </c>
-      <c r="L8" s="12">
+      <c r="K8" s="12">
+        <v>90</v>
+      </c>
+      <c r="L8" s="4">
         <v>3</v>
       </c>
       <c r="M8" s="5"/>
@@ -922,8 +922,8 @@
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3">
-        <v>8</v>
+      <c r="C9" s="4">
+        <v>10</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>14</v>
@@ -942,10 +942,10 @@
       <c r="J9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="10">
-        <v>30</v>
-      </c>
-      <c r="L9" s="12">
+      <c r="K9" s="12">
+        <v>90</v>
+      </c>
+      <c r="L9" s="4">
         <v>3</v>
       </c>
       <c r="M9" s="5"/>
@@ -970,8 +970,8 @@
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3">
-        <v>9</v>
+      <c r="C10" s="4">
+        <v>11</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>14</v>
@@ -991,10 +991,10 @@
         <v>17</v>
       </c>
       <c r="K10" s="12">
-        <v>90</v>
-      </c>
-      <c r="L10" s="4">
-        <v>3</v>
+        <v>-1</v>
+      </c>
+      <c r="L10" s="12">
+        <v>4</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="1"/>
@@ -1018,8 +1018,8 @@
       <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4">
-        <v>10</v>
+      <c r="C11" s="3">
+        <v>12</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>14</v>
@@ -1039,10 +1039,10 @@
         <v>18</v>
       </c>
       <c r="K11" s="12">
-        <v>90</v>
-      </c>
-      <c r="L11" s="4">
-        <v>3</v>
+        <v>-1</v>
+      </c>
+      <c r="L11" s="12">
+        <v>4</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="1"/>
@@ -1066,8 +1066,8 @@
       <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="4">
-        <v>11</v>
+      <c r="C12" s="3">
+        <v>13</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>14</v>
@@ -1087,7 +1087,7 @@
         <v>17</v>
       </c>
       <c r="K12" s="12">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="L12" s="12">
         <v>4</v>
@@ -1114,8 +1114,8 @@
       <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3">
-        <v>12</v>
+      <c r="C13" s="4">
+        <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>14</v>
@@ -1135,7 +1135,7 @@
         <v>18</v>
       </c>
       <c r="K13" s="12">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="L13" s="12">
         <v>4</v>
@@ -1162,8 +1162,8 @@
       <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3">
-        <v>13</v>
+      <c r="C14" s="4">
+        <v>15</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>14</v>
@@ -1183,7 +1183,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L14" s="12">
         <v>4</v>
@@ -1210,8 +1210,8 @@
       <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4">
-        <v>14</v>
+      <c r="C15" s="3">
+        <v>16</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>14</v>
@@ -1231,7 +1231,7 @@
         <v>18</v>
       </c>
       <c r="K15" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L15" s="12">
         <v>4</v>
@@ -1258,8 +1258,8 @@
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4">
-        <v>15</v>
+      <c r="C16" s="3">
+        <v>17</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>14</v>
@@ -1278,8 +1278,8 @@
       <c r="J16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="12">
-        <v>20</v>
+      <c r="K16" s="10">
+        <v>30</v>
       </c>
       <c r="L16" s="12">
         <v>4</v>
@@ -1306,8 +1306,8 @@
       <c r="B17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="3">
-        <v>16</v>
+      <c r="C17" s="4">
+        <v>18</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>14</v>
@@ -1326,8 +1326,8 @@
       <c r="J17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="12">
-        <v>20</v>
+      <c r="K17" s="10">
+        <v>30</v>
       </c>
       <c r="L17" s="12">
         <v>4</v>
@@ -1354,8 +1354,8 @@
       <c r="B18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="3">
-        <v>17</v>
+      <c r="C18" s="4">
+        <v>19</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>14</v>
@@ -1374,10 +1374,10 @@
       <c r="J18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="10">
-        <v>30</v>
-      </c>
-      <c r="L18" s="12">
+      <c r="K18" s="12">
+        <v>90</v>
+      </c>
+      <c r="L18" s="4">
         <v>4</v>
       </c>
       <c r="M18" s="5"/>
@@ -1402,8 +1402,8 @@
       <c r="B19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="4">
-        <v>18</v>
+      <c r="C19" s="3">
+        <v>20</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>14</v>
@@ -1422,10 +1422,10 @@
       <c r="J19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="10">
-        <v>30</v>
-      </c>
-      <c r="L19" s="12">
+      <c r="K19" s="12">
+        <v>90</v>
+      </c>
+      <c r="L19" s="4">
         <v>4</v>
       </c>
       <c r="M19" s="5"/>
@@ -1450,16 +1450,16 @@
       <c r="B20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="4">
-        <v>19</v>
+      <c r="C20" s="3">
+        <v>21</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="8" t="s">
-        <v>15</v>
+      <c r="G20" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>16</v>
@@ -1471,10 +1471,10 @@
         <v>17</v>
       </c>
       <c r="K20" s="12">
-        <v>90</v>
-      </c>
-      <c r="L20" s="4">
-        <v>4</v>
+        <v>-1</v>
+      </c>
+      <c r="L20" s="12">
+        <v>3</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="1"/>
@@ -1498,16 +1498,16 @@
       <c r="B21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="3">
-        <v>20</v>
+      <c r="C21" s="4">
+        <v>22</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="8" t="s">
-        <v>15</v>
+      <c r="G21" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>16</v>
@@ -1519,10 +1519,10 @@
         <v>18</v>
       </c>
       <c r="K21" s="12">
-        <v>90</v>
-      </c>
-      <c r="L21" s="4">
-        <v>4</v>
+        <v>-1</v>
+      </c>
+      <c r="L21" s="12">
+        <v>3</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="1"/>
@@ -1546,8 +1546,8 @@
       <c r="B22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="3">
-        <v>21</v>
+      <c r="C22" s="4">
+        <v>23</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>14</v>
@@ -1567,7 +1567,7 @@
         <v>17</v>
       </c>
       <c r="K22" s="12">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="L22" s="12">
         <v>3</v>
@@ -1594,8 +1594,8 @@
       <c r="B23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="4">
-        <v>22</v>
+      <c r="C23" s="3">
+        <v>24</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>14</v>
@@ -1615,7 +1615,7 @@
         <v>18</v>
       </c>
       <c r="K23" s="12">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="L23" s="12">
         <v>3</v>
@@ -1642,8 +1642,8 @@
       <c r="B24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="4">
-        <v>23</v>
+      <c r="C24" s="3">
+        <v>25</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>14</v>
@@ -1663,7 +1663,7 @@
         <v>17</v>
       </c>
       <c r="K24" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L24" s="12">
         <v>3</v>
@@ -1690,8 +1690,8 @@
       <c r="B25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="3">
-        <v>24</v>
+      <c r="C25" s="4">
+        <v>26</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>14</v>
@@ -1711,7 +1711,7 @@
         <v>18</v>
       </c>
       <c r="K25" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L25" s="12">
         <v>3</v>
@@ -1738,8 +1738,8 @@
       <c r="B26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="3">
-        <v>25</v>
+      <c r="C26" s="4">
+        <v>27</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>14</v>
@@ -1758,8 +1758,8 @@
       <c r="J26" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="12">
-        <v>20</v>
+      <c r="K26" s="10">
+        <v>30</v>
       </c>
       <c r="L26" s="12">
         <v>3</v>
@@ -1786,8 +1786,8 @@
       <c r="B27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="4">
-        <v>26</v>
+      <c r="C27" s="3">
+        <v>28</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>14</v>
@@ -1806,8 +1806,8 @@
       <c r="J27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K27" s="12">
-        <v>20</v>
+      <c r="K27" s="10">
+        <v>30</v>
       </c>
       <c r="L27" s="12">
         <v>3</v>
@@ -1834,8 +1834,8 @@
       <c r="B28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="4">
-        <v>27</v>
+      <c r="C28" s="3">
+        <v>29</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>14</v>
@@ -1854,10 +1854,10 @@
       <c r="J28" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="10">
-        <v>30</v>
-      </c>
-      <c r="L28" s="12">
+      <c r="K28" s="12">
+        <v>90</v>
+      </c>
+      <c r="L28" s="4">
         <v>3</v>
       </c>
       <c r="M28" s="5"/>
@@ -1882,8 +1882,8 @@
       <c r="B29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="3">
-        <v>28</v>
+      <c r="C29" s="4">
+        <v>30</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>14</v>
@@ -1902,10 +1902,10 @@
       <c r="J29" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="10">
-        <v>30</v>
-      </c>
-      <c r="L29" s="12">
+      <c r="K29" s="12">
+        <v>90</v>
+      </c>
+      <c r="L29" s="4">
         <v>3</v>
       </c>
       <c r="M29" s="5"/>
@@ -1930,8 +1930,8 @@
       <c r="B30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="3">
-        <v>29</v>
+      <c r="C30" s="4">
+        <v>31</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>14</v>
@@ -1951,10 +1951,10 @@
         <v>17</v>
       </c>
       <c r="K30" s="12">
-        <v>90</v>
-      </c>
-      <c r="L30" s="4">
-        <v>3</v>
+        <v>-1</v>
+      </c>
+      <c r="L30" s="12">
+        <v>4</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="1"/>
@@ -1978,8 +1978,8 @@
       <c r="B31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="4">
-        <v>30</v>
+      <c r="C31" s="3">
+        <v>32</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>14</v>
@@ -1999,10 +1999,10 @@
         <v>18</v>
       </c>
       <c r="K31" s="12">
-        <v>90</v>
-      </c>
-      <c r="L31" s="4">
-        <v>3</v>
+        <v>-1</v>
+      </c>
+      <c r="L31" s="12">
+        <v>4</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="1"/>
@@ -2026,8 +2026,8 @@
       <c r="B32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="4">
-        <v>31</v>
+      <c r="C32" s="3">
+        <v>33</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>14</v>
@@ -2047,7 +2047,7 @@
         <v>17</v>
       </c>
       <c r="K32" s="12">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="L32" s="12">
         <v>4</v>
@@ -2074,8 +2074,8 @@
       <c r="B33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="3">
-        <v>32</v>
+      <c r="C33" s="4">
+        <v>34</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>14</v>
@@ -2095,7 +2095,7 @@
         <v>18</v>
       </c>
       <c r="K33" s="12">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="L33" s="12">
         <v>4</v>
@@ -2122,8 +2122,8 @@
       <c r="B34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="3">
-        <v>33</v>
+      <c r="C34" s="4">
+        <v>35</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>14</v>
@@ -2143,7 +2143,7 @@
         <v>17</v>
       </c>
       <c r="K34" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L34" s="12">
         <v>4</v>
@@ -2170,8 +2170,8 @@
       <c r="B35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="4">
-        <v>34</v>
+      <c r="C35" s="3">
+        <v>36</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>14</v>
@@ -2191,7 +2191,7 @@
         <v>18</v>
       </c>
       <c r="K35" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L35" s="12">
         <v>4</v>
@@ -2218,8 +2218,8 @@
       <c r="B36" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="4">
-        <v>35</v>
+      <c r="C36" s="3">
+        <v>37</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>14</v>
@@ -2238,8 +2238,8 @@
       <c r="J36" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K36" s="12">
-        <v>20</v>
+      <c r="K36" s="10">
+        <v>30</v>
       </c>
       <c r="L36" s="12">
         <v>4</v>
@@ -2266,8 +2266,8 @@
       <c r="B37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="3">
-        <v>36</v>
+      <c r="C37" s="4">
+        <v>38</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>14</v>
@@ -2286,8 +2286,8 @@
       <c r="J37" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K37" s="12">
-        <v>20</v>
+      <c r="K37" s="10">
+        <v>30</v>
       </c>
       <c r="L37" s="12">
         <v>4</v>
@@ -2314,8 +2314,8 @@
       <c r="B38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="3">
-        <v>37</v>
+      <c r="C38" s="4">
+        <v>39</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>14</v>
@@ -2334,10 +2334,10 @@
       <c r="J38" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="10">
-        <v>30</v>
-      </c>
-      <c r="L38" s="12">
+      <c r="K38" s="12">
+        <v>90</v>
+      </c>
+      <c r="L38" s="4">
         <v>4</v>
       </c>
       <c r="M38" s="5"/>
@@ -2362,8 +2362,8 @@
       <c r="B39" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="4">
-        <v>38</v>
+      <c r="C39" s="3">
+        <v>40</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>14</v>
@@ -2382,10 +2382,10 @@
       <c r="J39" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K39" s="10">
-        <v>30</v>
-      </c>
-      <c r="L39" s="12">
+      <c r="K39" s="12">
+        <v>90</v>
+      </c>
+      <c r="L39" s="4">
         <v>4</v>
       </c>
       <c r="M39" s="5"/>
@@ -2403,101 +2403,35 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="4">
-        <v>39</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="10">
-        <v>30</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="12">
-        <v>90</v>
-      </c>
-      <c r="L40" s="4">
-        <v>4</v>
-      </c>
-      <c r="M40" s="5"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
-    </row>
-    <row r="41" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="3">
-        <v>40</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="10">
-        <v>30</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K41" s="12">
-        <v>90</v>
-      </c>
-      <c r="L41" s="4">
-        <v>4</v>
-      </c>
-      <c r="M41" s="5"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A42" s="14"/>
@@ -2559,36 +2493,6 @@
       <c r="L45" s="14"/>
       <c r="M45" s="14"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/bioSample/bioSample_J.PLAGGENBERG_01.10.20.xlsx
+++ b/bioSample/bioSample_J.PLAGGENBERG_01.10.20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248FAE86-554E-B540-817E-DD99B0B351C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A76C6E-C2D7-D142-AF7B-505167148869}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="2720" windowWidth="17080" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10180" yWindow="460" windowWidth="25640" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,13 +86,13 @@
     <t>SCGal</t>
   </si>
   <si>
-    <t>EtOH</t>
-  </si>
-  <si>
     <t>Estradiol</t>
   </si>
   <si>
     <t>RGT1</t>
+  </si>
+  <si>
+    <t>mockEstradiol</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="A1:Z45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -604,7 +604,7 @@
         <v>30</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K2" s="12">
         <v>-1</v>
@@ -652,7 +652,7 @@
         <v>30</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" s="12">
         <v>-1</v>
@@ -700,7 +700,7 @@
         <v>30</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K4" s="12">
         <v>15</v>
@@ -748,7 +748,7 @@
         <v>30</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" s="12">
         <v>15</v>
@@ -796,7 +796,7 @@
         <v>30</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K6" s="12">
         <v>20</v>
@@ -844,7 +844,7 @@
         <v>30</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7" s="10">
         <v>30</v>
@@ -892,7 +892,7 @@
         <v>30</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K8" s="12">
         <v>90</v>
@@ -940,7 +940,7 @@
         <v>30</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9" s="12">
         <v>90</v>
@@ -988,7 +988,7 @@
         <v>30</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K10" s="12">
         <v>-1</v>
@@ -1036,7 +1036,7 @@
         <v>30</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K11" s="12">
         <v>-1</v>
@@ -1084,7 +1084,7 @@
         <v>30</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K12" s="12">
         <v>15</v>
@@ -1132,7 +1132,7 @@
         <v>30</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K13" s="12">
         <v>15</v>
@@ -1180,7 +1180,7 @@
         <v>30</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K14" s="12">
         <v>20</v>
@@ -1228,7 +1228,7 @@
         <v>30</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K15" s="12">
         <v>20</v>
@@ -1276,7 +1276,7 @@
         <v>30</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K16" s="10">
         <v>30</v>
@@ -1324,7 +1324,7 @@
         <v>30</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K17" s="10">
         <v>30</v>
@@ -1372,7 +1372,7 @@
         <v>30</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K18" s="12">
         <v>90</v>
@@ -1420,7 +1420,7 @@
         <v>30</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K19" s="12">
         <v>90</v>
@@ -1459,16 +1459,16 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="10">
+        <v>30</v>
+      </c>
+      <c r="J20" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="10">
-        <v>30</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="K20" s="12">
         <v>-1</v>
@@ -1507,7 +1507,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>16</v>
@@ -1516,7 +1516,7 @@
         <v>30</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K21" s="12">
         <v>-1</v>
@@ -1555,16 +1555,16 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="10">
+        <v>30</v>
+      </c>
+      <c r="J22" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="10">
-        <v>30</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="K22" s="12">
         <v>15</v>
@@ -1603,7 +1603,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>16</v>
@@ -1612,7 +1612,7 @@
         <v>30</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K23" s="12">
         <v>15</v>
@@ -1651,16 +1651,16 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="10">
+        <v>30</v>
+      </c>
+      <c r="J24" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="10">
-        <v>30</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="K24" s="12">
         <v>20</v>
@@ -1699,7 +1699,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>16</v>
@@ -1708,7 +1708,7 @@
         <v>30</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K25" s="12">
         <v>20</v>
@@ -1747,16 +1747,16 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="10">
+        <v>30</v>
+      </c>
+      <c r="J26" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="10">
-        <v>30</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="K26" s="10">
         <v>30</v>
@@ -1795,7 +1795,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>16</v>
@@ -1804,7 +1804,7 @@
         <v>30</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K27" s="10">
         <v>30</v>
@@ -1843,16 +1843,16 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="10">
+        <v>30</v>
+      </c>
+      <c r="J28" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="10">
-        <v>30</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="K28" s="12">
         <v>90</v>
@@ -1891,7 +1891,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>16</v>
@@ -1900,7 +1900,7 @@
         <v>30</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K29" s="12">
         <v>90</v>
@@ -1939,16 +1939,16 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="10">
+        <v>30</v>
+      </c>
+      <c r="J30" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="10">
-        <v>30</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="K30" s="12">
         <v>-1</v>
@@ -1987,7 +1987,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>16</v>
@@ -1996,7 +1996,7 @@
         <v>30</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K31" s="12">
         <v>-1</v>
@@ -2035,16 +2035,16 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="10">
+        <v>30</v>
+      </c>
+      <c r="J32" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="10">
-        <v>30</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="K32" s="12">
         <v>15</v>
@@ -2083,7 +2083,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>16</v>
@@ -2092,7 +2092,7 @@
         <v>30</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K33" s="12">
         <v>15</v>
@@ -2131,16 +2131,16 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="10">
+        <v>30</v>
+      </c>
+      <c r="J34" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="10">
-        <v>30</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="K34" s="12">
         <v>20</v>
@@ -2179,7 +2179,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>16</v>
@@ -2188,7 +2188,7 @@
         <v>30</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K35" s="12">
         <v>20</v>
@@ -2227,16 +2227,16 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="10">
+        <v>30</v>
+      </c>
+      <c r="J36" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="10">
-        <v>30</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="K36" s="10">
         <v>30</v>
@@ -2275,7 +2275,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>16</v>
@@ -2284,7 +2284,7 @@
         <v>30</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K37" s="10">
         <v>30</v>
@@ -2323,16 +2323,16 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="10">
+        <v>30</v>
+      </c>
+      <c r="J38" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="10">
-        <v>30</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="K38" s="12">
         <v>90</v>
@@ -2371,7 +2371,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>16</v>
@@ -2380,7 +2380,7 @@
         <v>30</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K39" s="12">
         <v>90</v>
